--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>904615.1705413483</v>
+        <v>803178.7947427436</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>379377.7080664388</v>
+        <v>379377.7080664389</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16169537.98470549</v>
+        <v>16169537.98470548</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6450093.153642449</v>
+        <v>6450093.15364245</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>312.9036513936305</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>200.9891947475946</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.53804104504002</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>74.6163413999151</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V11" t="n">
-        <v>312.9036513936306</v>
+        <v>312.9036513936305</v>
       </c>
       <c r="W11" t="n">
-        <v>312.9036513936306</v>
+        <v>312.9036513936305</v>
       </c>
       <c r="X11" t="n">
-        <v>312.9036513936306</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>148.1891827742633</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>30.76125875403837</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>181.2740768417615</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>164.3981330698734</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>164.5855320903133</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>312.9036513936305</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25.53804104504025</v>
       </c>
       <c r="E14" t="n">
-        <v>74.61634139991487</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>312.9036513936305</v>
@@ -1624,10 +1624,10 @@
         <v>312.9036513936305</v>
       </c>
       <c r="H14" t="n">
-        <v>312.9036513936305</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.9891947475946</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108.2606887195877</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>212.7321843834112</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1915285955489</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>18.65038825049488</v>
       </c>
     </row>
     <row r="16">
@@ -1776,22 +1776,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.901158654318164</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>161.6843734359952</v>
       </c>
       <c r="I16" t="n">
-        <v>150.8496959663649</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8055589649426977</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.93027715900568</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>312.9036513936306</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>312.9036513936305</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>275.6055361475096</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>312.9036513936305</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>312.9036513936305</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>312.9036513936306</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>25.53804104504047</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>312.9036513936306</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>148.1891827742633</v>
       </c>
       <c r="H18" t="n">
-        <v>111.800401431044</v>
+        <v>67.54567199333827</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.2349341647554</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.5855320903132</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>164.5855320903134</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>312.9036513936306</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>312.9036513936305</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>74.61634139991487</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>312.9036513936305</v>
+        <v>229.561907739672</v>
       </c>
       <c r="H20" t="n">
-        <v>312.9036513936305</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>200.9891947475946</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>203.8617493554951</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.9216867371346</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0674951024693</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.388021486497</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -2171,13 +2171,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>91.40963360206895</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>120.3713202691058</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>164.5855320903134</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>164.5855320903134</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.08836802115</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>173.5504142083537</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>84.96536072595927</v>
+        <v>84.9653607259593</v>
       </c>
       <c r="S23" t="n">
-        <v>187.6433144540502</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.8061102684094</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0105570973299</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>188.0883634906841</v>
       </c>
       <c r="X23" t="n">
-        <v>278.4841589027358</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>102.6037793487663</v>
       </c>
       <c r="C24" t="n">
-        <v>167.959296013076</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.8083762929562</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>116.6935313575338</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>75.12923829962483</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>76.591528246403</v>
+        <v>76.59152824640302</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>174.2007634718674</v>
       </c>
       <c r="T24" t="n">
         <v>211.1972670311248</v>
@@ -2456,13 +2456,13 @@
         <v>237.1664755375682</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>121.3605035481499</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.597109000545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>326.4840448047033</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>173.5504142083537</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>84.9653607259593</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.2004252276955</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>18.16847469209154</v>
       </c>
       <c r="G27" t="n">
         <v>147.8083762929562</v>
       </c>
       <c r="H27" t="n">
-        <v>103.2389675546981</v>
+        <v>116.6935313575338</v>
       </c>
       <c r="I27" t="n">
-        <v>75.12923829962483</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.59152824640302</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>174.2007634718674</v>
@@ -2696,10 +2696,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>168.1379014652714</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>221.7593386592607</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>121.3605035481499</v>
       </c>
       <c r="V28" t="n">
-        <v>21.77397051295306</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.08836802115</v>
+        <v>365.4710656409147</v>
       </c>
       <c r="H29" t="n">
-        <v>329.1012087514287</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>173.5504142083537</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>214.8061102684094</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0105570973299</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>34.41279138979726</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79.01633628840908</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.8083762929562</v>
+        <v>61.03948629085734</v>
       </c>
       <c r="H30" t="n">
         <v>116.6935313575338</v>
       </c>
       <c r="I30" t="n">
-        <v>75.12923829962483</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>237.1664755375682</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>131.0681872068138</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>121.3605035481499</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.08836802115</v>
+        <v>396.4415783017388</v>
       </c>
       <c r="H32" t="n">
-        <v>329.1012087514287</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>119.3274739521599</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>29.92464135543539</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.8083762929562</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>59.12312261361741</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>131.0681872068138</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.4078851679796</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.2633254695056</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>82.08063420688845</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.08836802115</v>
       </c>
       <c r="H35" t="n">
-        <v>329.1012087514287</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>173.5504142083537</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>214.8061102684094</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0105570973299</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>84.40328599669323</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.8083762929562</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>116.6935313575338</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>75.12923829962483</v>
+        <v>3.355714882792942</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>211.1972670311248</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1664755375682</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>66.9127882902215</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>131.0681872068136</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6137441181527</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>123.0574665193326</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>417.08836802115</v>
       </c>
       <c r="H38" t="n">
-        <v>329.1012087514287</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>75.9541042929167</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>84.9653607259593</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.8061102684094</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0105570973299</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>7.295896438050952</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.59152824640302</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>174.2007634718674</v>
@@ -3641,16 +3641,16 @@
         <v>237.1664755375682</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>166.3755216615127</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>119.5787563302139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>50.98498975977783</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>221.7593386592607</v>
       </c>
       <c r="T40" t="n">
-        <v>123.0574665193326</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6137441181527</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>80.02224734931053</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>329.1012087514287</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>173.5504142083537</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>84.96536072595933</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>187.6433144540503</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>214.8061102684094</v>
@@ -3802,13 +3802,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>200.8873367015659</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>31.65247497694332</v>
       </c>
       <c r="C42" t="n">
-        <v>58.2022370756325</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -3836,7 +3836,7 @@
         <v>147.8083762929562</v>
       </c>
       <c r="H42" t="n">
-        <v>116.6935313575338</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>75.12923829962483</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>174.2007634718674</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.1972670311248</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1664755375682</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>221.7593386592608</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>23.45469100625196</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6137441181527</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>123.0574665193324</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>157.7276715521693</v>
+        <v>417.08836802115</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>321.1068611510283</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>214.8061102684094</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0105570973299</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.8083762929562</v>
       </c>
       <c r="H45" t="n">
-        <v>7.367735755369266</v>
+        <v>116.6935313575338</v>
       </c>
       <c r="I45" t="n">
         <v>75.12923829962483</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>174.2007634718674</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.1972670311248</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1664755375682</v>
+        <v>87.99699999073738</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -4121,7 +4121,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>131.0681872068135</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>158.8459030373648</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>107.6426573494096</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>228.0516807454244</v>
+        <v>341.096586448491</v>
       </c>
       <c r="C11" t="n">
-        <v>228.0516807454244</v>
+        <v>341.096586448491</v>
       </c>
       <c r="D11" t="n">
-        <v>228.0516807454244</v>
+        <v>341.096586448491</v>
       </c>
       <c r="E11" t="n">
-        <v>228.0516807454244</v>
+        <v>341.096586448491</v>
       </c>
       <c r="F11" t="n">
-        <v>228.0516807454244</v>
+        <v>341.096586448491</v>
       </c>
       <c r="G11" t="n">
-        <v>228.0516807454244</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="H11" t="n">
-        <v>228.0516807454244</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="I11" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="J11" t="n">
-        <v>36.24316399891018</v>
+        <v>36.24316399890979</v>
       </c>
       <c r="K11" t="n">
-        <v>160.3104204286106</v>
+        <v>160.3104204286102</v>
       </c>
       <c r="L11" t="n">
-        <v>369.2098852370227</v>
+        <v>369.2098852370223</v>
       </c>
       <c r="M11" t="n">
-        <v>630.5267501385879</v>
+        <v>630.5267501385874</v>
       </c>
       <c r="N11" t="n">
-        <v>889.2295590956371</v>
+        <v>889.2295590956365</v>
       </c>
       <c r="O11" t="n">
-        <v>1096.605926898</v>
+        <v>1096.605926897999</v>
       </c>
       <c r="P11" t="n">
         <v>1229.449286380076</v>
       </c>
       <c r="Q11" t="n">
-        <v>1251.614605574523</v>
+        <v>1251.614605574522</v>
       </c>
       <c r="R11" t="n">
-        <v>1251.614605574523</v>
+        <v>1251.614605574522</v>
       </c>
       <c r="S11" t="n">
-        <v>1251.614605574523</v>
+        <v>1225.818604518926</v>
       </c>
       <c r="T11" t="n">
-        <v>1251.614605574523</v>
+        <v>1225.818604518926</v>
       </c>
       <c r="U11" t="n">
-        <v>1176.244563756426</v>
+        <v>973.2251751224921</v>
       </c>
       <c r="V11" t="n">
-        <v>860.1802694194257</v>
+        <v>657.1608807854916</v>
       </c>
       <c r="W11" t="n">
-        <v>544.1159750824251</v>
+        <v>341.096586448491</v>
       </c>
       <c r="X11" t="n">
-        <v>228.0516807454244</v>
+        <v>341.096586448491</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.0516807454244</v>
+        <v>341.096586448491</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>889.9736245245958</v>
+        <v>388.0077702571123</v>
       </c>
       <c r="C12" t="n">
-        <v>700.5613502575595</v>
+        <v>198.595495990076</v>
       </c>
       <c r="D12" t="n">
-        <v>539.7812340185912</v>
+        <v>198.595495990076</v>
       </c>
       <c r="E12" t="n">
-        <v>366.2180301400057</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="F12" t="n">
-        <v>205.7903138572498</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="G12" t="n">
-        <v>56.10427065092316</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="H12" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="I12" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="J12" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="K12" t="n">
         <v>151.7871581925442</v>
@@ -5129,43 +5129,43 @@
         <v>388.5112604951696</v>
       </c>
       <c r="M12" t="n">
-        <v>698.285875374864</v>
+        <v>427.2965627469385</v>
       </c>
       <c r="N12" t="n">
-        <v>989.7417326890406</v>
+        <v>737.0711776266328</v>
       </c>
       <c r="O12" t="n">
-        <v>999.5995793940083</v>
+        <v>999.5995793940078</v>
       </c>
       <c r="P12" t="n">
         <v>1188.225264978955</v>
       </c>
       <c r="Q12" t="n">
-        <v>1251.614605574523</v>
+        <v>1251.614605574522</v>
       </c>
       <c r="R12" t="n">
-        <v>1251.614605574523</v>
+        <v>1251.614605574522</v>
       </c>
       <c r="S12" t="n">
-        <v>1068.509477451531</v>
+        <v>1251.614605574522</v>
       </c>
       <c r="T12" t="n">
-        <v>1068.509477451531</v>
+        <v>1036.733611247844</v>
       </c>
       <c r="U12" t="n">
-        <v>1068.509477451531</v>
+        <v>797.1462086260776</v>
       </c>
       <c r="V12" t="n">
-        <v>1068.509477451531</v>
+        <v>554.0664905297117</v>
       </c>
       <c r="W12" t="n">
-        <v>1068.509477451531</v>
+        <v>388.0077702571123</v>
       </c>
       <c r="X12" t="n">
-        <v>1068.509477451531</v>
+        <v>388.0077702571123</v>
       </c>
       <c r="Y12" t="n">
-        <v>1068.509477451531</v>
+        <v>388.0077702571123</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="C13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="D13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="E13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="F13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="G13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="H13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="I13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="J13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="K13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="L13" t="n">
-        <v>61.73869802521079</v>
+        <v>61.73869802521077</v>
       </c>
       <c r="M13" t="n">
-        <v>109.0363460927042</v>
+        <v>109.0363460927041</v>
       </c>
       <c r="N13" t="n">
-        <v>163.225498064157</v>
+        <v>163.2254980641569</v>
       </c>
       <c r="O13" t="n">
         <v>191.2803043239281</v>
@@ -5223,28 +5223,28 @@
         <v>191.2803043239281</v>
       </c>
       <c r="R13" t="n">
-        <v>25.03229211149045</v>
+        <v>191.2803043239281</v>
       </c>
       <c r="S13" t="n">
-        <v>25.03229211149045</v>
+        <v>191.2803043239281</v>
       </c>
       <c r="T13" t="n">
-        <v>25.03229211149045</v>
+        <v>191.2803043239281</v>
       </c>
       <c r="U13" t="n">
-        <v>25.03229211149045</v>
+        <v>191.2803043239281</v>
       </c>
       <c r="V13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="W13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="X13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.03229211149045</v>
+        <v>25.03229211149044</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1251.614605574522</v>
+        <v>682.9568818410878</v>
       </c>
       <c r="C14" t="n">
-        <v>1251.614605574522</v>
+        <v>682.9568818410878</v>
       </c>
       <c r="D14" t="n">
-        <v>1251.614605574522</v>
+        <v>657.1608807854916</v>
       </c>
       <c r="E14" t="n">
-        <v>1176.244563756426</v>
+        <v>657.1608807854916</v>
       </c>
       <c r="F14" t="n">
-        <v>860.1802694194255</v>
+        <v>341.096586448491</v>
       </c>
       <c r="G14" t="n">
-        <v>544.1159750824249</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="H14" t="n">
-        <v>228.0516807454244</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="I14" t="n">
         <v>25.03229211149044</v>
@@ -5287,10 +5287,10 @@
         <v>369.2098852370223</v>
       </c>
       <c r="M14" t="n">
-        <v>630.5267501385874</v>
+        <v>630.5267501385875</v>
       </c>
       <c r="N14" t="n">
-        <v>889.2295590956364</v>
+        <v>889.2295590956367</v>
       </c>
       <c r="O14" t="n">
         <v>1096.605926897999</v>
@@ -5311,19 +5311,19 @@
         <v>1251.614605574522</v>
       </c>
       <c r="U14" t="n">
-        <v>1251.614605574522</v>
+        <v>999.0211761780884</v>
       </c>
       <c r="V14" t="n">
-        <v>1251.614605574522</v>
+        <v>999.0211761780884</v>
       </c>
       <c r="W14" t="n">
-        <v>1251.614605574522</v>
+        <v>999.0211761780884</v>
       </c>
       <c r="X14" t="n">
-        <v>1251.614605574522</v>
+        <v>999.0211761780884</v>
       </c>
       <c r="Y14" t="n">
-        <v>1251.614605574522</v>
+        <v>999.0211761780884</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>214.4445663785267</v>
+        <v>335.4984515567853</v>
       </c>
       <c r="C15" t="n">
-        <v>25.03229211149044</v>
+        <v>335.4984515567853</v>
       </c>
       <c r="D15" t="n">
-        <v>25.03229211149044</v>
+        <v>174.7183353178171</v>
       </c>
       <c r="E15" t="n">
-        <v>25.03229211149044</v>
+        <v>174.7183353178171</v>
       </c>
       <c r="F15" t="n">
-        <v>25.03229211149044</v>
+        <v>174.7183353178171</v>
       </c>
       <c r="G15" t="n">
         <v>25.03229211149044</v>
@@ -5360,19 +5360,19 @@
         <v>25.03229211149044</v>
       </c>
       <c r="K15" t="n">
-        <v>25.03229211149044</v>
+        <v>151.7871581925442</v>
       </c>
       <c r="L15" t="n">
-        <v>261.7563944141158</v>
+        <v>388.5112604951697</v>
       </c>
       <c r="M15" t="n">
-        <v>490.6859033425059</v>
+        <v>679.3115889274527</v>
       </c>
       <c r="N15" t="n">
-        <v>800.4605182222001</v>
+        <v>989.0862038071469</v>
       </c>
       <c r="O15" t="n">
-        <v>1062.988919989575</v>
+        <v>1251.614605574522</v>
       </c>
       <c r="P15" t="n">
         <v>1251.614605574522</v>
@@ -5381,28 +5381,28 @@
         <v>1251.614605574522</v>
       </c>
       <c r="R15" t="n">
-        <v>1251.614605574522</v>
+        <v>1150.367197327294</v>
       </c>
       <c r="S15" t="n">
-        <v>1251.614605574522</v>
+        <v>967.262069204303</v>
       </c>
       <c r="T15" t="n">
-        <v>1251.614605574522</v>
+        <v>752.381074877625</v>
       </c>
       <c r="U15" t="n">
-        <v>1012.027202952755</v>
+        <v>752.381074877625</v>
       </c>
       <c r="V15" t="n">
-        <v>768.9474848563893</v>
+        <v>752.381074877625</v>
       </c>
       <c r="W15" t="n">
-        <v>768.9474848563893</v>
+        <v>752.381074877625</v>
       </c>
       <c r="X15" t="n">
-        <v>549.4394904730857</v>
+        <v>532.8730804943214</v>
       </c>
       <c r="Y15" t="n">
-        <v>323.7987974084133</v>
+        <v>514.0343044837205</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="C16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="D16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="E16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="F16" t="n">
-        <v>191.2803043239281</v>
+        <v>188.3498410367381</v>
       </c>
       <c r="G16" t="n">
-        <v>191.2803043239281</v>
+        <v>188.3498410367381</v>
       </c>
       <c r="H16" t="n">
-        <v>191.2803043239281</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="I16" t="n">
-        <v>38.90687405487265</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="J16" t="n">
-        <v>38.0931781306881</v>
+        <v>25.03229211149044</v>
       </c>
       <c r="K16" t="n">
         <v>25.03229211149044</v>
       </c>
       <c r="L16" t="n">
-        <v>61.73869802521078</v>
+        <v>61.73869802521082</v>
       </c>
       <c r="M16" t="n">
-        <v>109.0363460927041</v>
+        <v>109.0363460927042</v>
       </c>
       <c r="N16" t="n">
         <v>163.225498064157</v>
       </c>
       <c r="O16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="P16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="R16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="S16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="T16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="U16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="V16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="W16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="X16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.2803043239281</v>
+        <v>191.2803043239282</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1251.614605574522</v>
+        <v>341.0965864484911</v>
       </c>
       <c r="C17" t="n">
-        <v>1251.614605574522</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="D17" t="n">
-        <v>1251.614605574522</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="E17" t="n">
-        <v>935.5503112375213</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="F17" t="n">
-        <v>657.1608807854914</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="G17" t="n">
-        <v>341.0965864484909</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="H17" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="I17" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="J17" t="n">
-        <v>36.24316399890972</v>
+        <v>36.24316399890984</v>
       </c>
       <c r="K17" t="n">
-        <v>160.3104204286101</v>
+        <v>160.3104204286103</v>
       </c>
       <c r="L17" t="n">
-        <v>369.2098852370223</v>
+        <v>369.2098852370224</v>
       </c>
       <c r="M17" t="n">
-        <v>630.5267501385874</v>
+        <v>630.5267501385877</v>
       </c>
       <c r="N17" t="n">
-        <v>889.2295590956365</v>
+        <v>889.2295590956369</v>
       </c>
       <c r="O17" t="n">
-        <v>1096.605926897999</v>
+        <v>1096.605926898</v>
       </c>
       <c r="P17" t="n">
         <v>1229.449286380076</v>
@@ -5548,19 +5548,19 @@
         <v>1251.614605574522</v>
       </c>
       <c r="U17" t="n">
-        <v>1251.614605574522</v>
+        <v>999.0211761780886</v>
       </c>
       <c r="V17" t="n">
-        <v>1251.614605574522</v>
+        <v>682.956881841088</v>
       </c>
       <c r="W17" t="n">
-        <v>1251.614605574522</v>
+        <v>657.1608807854916</v>
       </c>
       <c r="X17" t="n">
-        <v>1251.614605574522</v>
+        <v>341.0965864484911</v>
       </c>
       <c r="Y17" t="n">
-        <v>1251.614605574522</v>
+        <v>341.0965864484911</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>971.8313444003591</v>
+        <v>605.9217649718614</v>
       </c>
       <c r="C18" t="n">
-        <v>782.4190701333227</v>
+        <v>416.5094907048251</v>
       </c>
       <c r="D18" t="n">
-        <v>621.6389538943545</v>
+        <v>416.5094907048251</v>
       </c>
       <c r="E18" t="n">
-        <v>448.0757500157689</v>
+        <v>242.9462868262396</v>
       </c>
       <c r="F18" t="n">
-        <v>287.648033733013</v>
+        <v>242.9462868262396</v>
       </c>
       <c r="G18" t="n">
-        <v>137.9619905266864</v>
+        <v>93.26024361991296</v>
       </c>
       <c r="H18" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="I18" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="J18" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="K18" t="n">
-        <v>25.03229211149044</v>
+        <v>151.7871581925442</v>
       </c>
       <c r="L18" t="n">
-        <v>261.7563944141158</v>
+        <v>388.5112604951697</v>
       </c>
       <c r="M18" t="n">
-        <v>490.6859033425059</v>
+        <v>427.2965627469386</v>
       </c>
       <c r="N18" t="n">
-        <v>800.4605182222001</v>
+        <v>737.0711776266329</v>
       </c>
       <c r="O18" t="n">
-        <v>1062.988919989575</v>
+        <v>999.5995793940081</v>
       </c>
       <c r="P18" t="n">
-        <v>1251.614605574522</v>
+        <v>1188.225264978955</v>
       </c>
       <c r="Q18" t="n">
         <v>1251.614605574522</v>
       </c>
       <c r="R18" t="n">
-        <v>1150.367197327294</v>
+        <v>1251.614605574522</v>
       </c>
       <c r="S18" t="n">
-        <v>1150.367197327294</v>
+        <v>1068.509477451531</v>
       </c>
       <c r="T18" t="n">
-        <v>1150.367197327294</v>
+        <v>1068.509477451531</v>
       </c>
       <c r="U18" t="n">
-        <v>1150.367197327294</v>
+        <v>1068.509477451531</v>
       </c>
       <c r="V18" t="n">
-        <v>1150.367197327294</v>
+        <v>825.4297593551651</v>
       </c>
       <c r="W18" t="n">
-        <v>1150.367197327294</v>
+        <v>825.4297593551651</v>
       </c>
       <c r="X18" t="n">
-        <v>1150.367197327294</v>
+        <v>605.9217649718614</v>
       </c>
       <c r="Y18" t="n">
-        <v>1150.367197327294</v>
+        <v>605.9217649718614</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="C19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="D19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="E19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="F19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="G19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="H19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="I19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="J19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="K19" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="L19" t="n">
-        <v>61.73869802521077</v>
+        <v>61.73869802521082</v>
       </c>
       <c r="M19" t="n">
-        <v>109.0363460927041</v>
+        <v>109.0363460927042</v>
       </c>
       <c r="N19" t="n">
-        <v>163.2254980641569</v>
+        <v>163.225498064157</v>
       </c>
       <c r="O19" t="n">
-        <v>191.280304323928</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="P19" t="n">
-        <v>191.280304323928</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="Q19" t="n">
-        <v>191.280304323928</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="R19" t="n">
-        <v>191.280304323928</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="S19" t="n">
-        <v>191.280304323928</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="T19" t="n">
-        <v>191.280304323928</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="U19" t="n">
-        <v>191.280304323928</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="V19" t="n">
-        <v>191.280304323928</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="W19" t="n">
-        <v>191.280304323928</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="X19" t="n">
-        <v>191.280304323928</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.280304323928</v>
+        <v>25.03229211149045</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1251.614605574522</v>
+        <v>572.9773013370486</v>
       </c>
       <c r="C20" t="n">
-        <v>1251.614605574522</v>
+        <v>256.913007000048</v>
       </c>
       <c r="D20" t="n">
-        <v>1251.614605574522</v>
+        <v>256.913007000048</v>
       </c>
       <c r="E20" t="n">
-        <v>935.5503112375213</v>
+        <v>256.913007000048</v>
       </c>
       <c r="F20" t="n">
-        <v>860.1802694194255</v>
+        <v>256.913007000048</v>
       </c>
       <c r="G20" t="n">
-        <v>544.1159750824249</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="H20" t="n">
-        <v>228.0516807454244</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="I20" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="J20" t="n">
-        <v>36.24316399890978</v>
+        <v>36.24316399890984</v>
       </c>
       <c r="K20" t="n">
-        <v>160.3104204286101</v>
+        <v>160.3104204286103</v>
       </c>
       <c r="L20" t="n">
-        <v>369.2098852370223</v>
+        <v>369.2098852370224</v>
       </c>
       <c r="M20" t="n">
-        <v>630.5267501385874</v>
+        <v>630.5267501385877</v>
       </c>
       <c r="N20" t="n">
-        <v>889.2295590956365</v>
+        <v>889.2295590956369</v>
       </c>
       <c r="O20" t="n">
-        <v>1096.605926897999</v>
+        <v>1096.605926898</v>
       </c>
       <c r="P20" t="n">
         <v>1229.449286380076</v>
@@ -5779,25 +5779,25 @@
         <v>1251.614605574522</v>
       </c>
       <c r="S20" t="n">
-        <v>1251.614605574522</v>
+        <v>1045.693646629578</v>
       </c>
       <c r="T20" t="n">
-        <v>1251.614605574522</v>
+        <v>825.5707307334824</v>
       </c>
       <c r="U20" t="n">
-        <v>1251.614605574522</v>
+        <v>572.9773013370486</v>
       </c>
       <c r="V20" t="n">
-        <v>1251.614605574522</v>
+        <v>572.9773013370486</v>
       </c>
       <c r="W20" t="n">
-        <v>1251.614605574522</v>
+        <v>572.9773013370486</v>
       </c>
       <c r="X20" t="n">
-        <v>1251.614605574522</v>
+        <v>572.9773013370486</v>
       </c>
       <c r="Y20" t="n">
-        <v>1251.614605574522</v>
+        <v>572.9773013370486</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>762.7080419215096</v>
+        <v>709.2156027788365</v>
       </c>
       <c r="C21" t="n">
-        <v>573.2957676544733</v>
+        <v>519.8033285118001</v>
       </c>
       <c r="D21" t="n">
-        <v>412.515651415505</v>
+        <v>359.0232122728319</v>
       </c>
       <c r="E21" t="n">
-        <v>238.9524475369194</v>
+        <v>185.4600083942464</v>
       </c>
       <c r="F21" t="n">
-        <v>146.6194843025064</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="G21" t="n">
-        <v>146.6194843025064</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="H21" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="I21" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="J21" t="n">
-        <v>25.03229211149044</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="K21" t="n">
-        <v>25.03229211149044</v>
+        <v>151.7871581925442</v>
       </c>
       <c r="L21" t="n">
-        <v>261.7563944141158</v>
+        <v>388.5112604951697</v>
       </c>
       <c r="M21" t="n">
-        <v>571.53100929381</v>
+        <v>696.6625532409096</v>
       </c>
       <c r="N21" t="n">
-        <v>881.3056241735042</v>
+        <v>737.0711776266329</v>
       </c>
       <c r="O21" t="n">
-        <v>1143.834025940879</v>
+        <v>999.5995793940081</v>
       </c>
       <c r="P21" t="n">
-        <v>1251.614605574522</v>
+        <v>1188.225264978955</v>
       </c>
       <c r="Q21" t="n">
         <v>1251.614605574522</v>
@@ -5858,25 +5858,25 @@
         <v>1251.614605574522</v>
       </c>
       <c r="S21" t="n">
-        <v>1251.614605574522</v>
+        <v>1068.509477451531</v>
       </c>
       <c r="T21" t="n">
-        <v>1251.614605574522</v>
+        <v>1068.509477451531</v>
       </c>
       <c r="U21" t="n">
-        <v>1251.614605574522</v>
+        <v>1068.509477451531</v>
       </c>
       <c r="V21" t="n">
-        <v>1251.614605574522</v>
+        <v>1068.509477451531</v>
       </c>
       <c r="W21" t="n">
-        <v>982.2160363048132</v>
+        <v>1068.509477451531</v>
       </c>
       <c r="X21" t="n">
-        <v>762.7080419215096</v>
+        <v>849.0014830682273</v>
       </c>
       <c r="Y21" t="n">
-        <v>762.7080419215096</v>
+        <v>849.0014830682273</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="C22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="D22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="E22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="F22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="G22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="H22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="I22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="J22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="K22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="L22" t="n">
-        <v>1122.072999275804</v>
+        <v>61.73869802521082</v>
       </c>
       <c r="M22" t="n">
-        <v>1169.370647343298</v>
+        <v>109.0363460927042</v>
       </c>
       <c r="N22" t="n">
-        <v>1223.559799314751</v>
+        <v>163.225498064157</v>
       </c>
       <c r="O22" t="n">
-        <v>1251.614605574522</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="P22" t="n">
-        <v>1251.614605574522</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="Q22" t="n">
-        <v>1251.614605574522</v>
+        <v>191.2803043239282</v>
       </c>
       <c r="R22" t="n">
-        <v>1251.614605574522</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="S22" t="n">
-        <v>1251.614605574522</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="U22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="V22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="W22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="X22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
       <c r="Y22" t="n">
-        <v>1085.366593362084</v>
+        <v>25.03229211149045</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.6694234383585</v>
+        <v>1420.593447972627</v>
       </c>
       <c r="C23" t="n">
-        <v>382.6694234383585</v>
+        <v>1420.593447972627</v>
       </c>
       <c r="D23" t="n">
-        <v>41.48542379974502</v>
+        <v>1420.593447972627</v>
       </c>
       <c r="E23" t="n">
-        <v>41.48542379974502</v>
+        <v>1045.362223667944</v>
       </c>
       <c r="F23" t="n">
-        <v>41.48542379974502</v>
+        <v>638.0902543345973</v>
       </c>
       <c r="G23" t="n">
-        <v>41.48542379974502</v>
+        <v>216.7888724950517</v>
       </c>
       <c r="H23" t="n">
-        <v>41.48542379974502</v>
+        <v>216.7888724950517</v>
       </c>
       <c r="I23" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="J23" t="n">
-        <v>112.4990031067731</v>
+        <v>112.4990031067734</v>
       </c>
       <c r="K23" t="n">
-        <v>326.1950157058084</v>
+        <v>326.1950157058086</v>
       </c>
       <c r="L23" t="n">
-        <v>646.2868780590438</v>
+        <v>646.2868780590443</v>
       </c>
       <c r="M23" t="n">
         <v>1031.326709710557</v>
@@ -6004,7 +6004,7 @@
         <v>1415.754452367948</v>
       </c>
       <c r="O23" t="n">
-        <v>1741.849309924159</v>
+        <v>1741.849309924158</v>
       </c>
       <c r="P23" t="n">
         <v>1976.016153761811</v>
@@ -6013,28 +6013,28 @@
         <v>2074.271189987251</v>
       </c>
       <c r="R23" t="n">
-        <v>1988.447593294363</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="S23" t="n">
-        <v>1798.908891825625</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="T23" t="n">
-        <v>1581.933022867636</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="U23" t="n">
-        <v>1329.397106607707</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="V23" t="n">
-        <v>1005.276113063109</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="W23" t="n">
-        <v>663.9665536431421</v>
+        <v>1798.459347344176</v>
       </c>
       <c r="X23" t="n">
-        <v>382.6694234383585</v>
+        <v>1798.459347344176</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.6694234383585</v>
+        <v>1798.459347344176</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1048.974078344692</v>
+        <v>306.7858175613518</v>
       </c>
       <c r="C24" t="n">
-        <v>879.3182237860294</v>
+        <v>117.3735432943156</v>
       </c>
       <c r="D24" t="n">
-        <v>718.5381075470611</v>
+        <v>117.3735432943156</v>
       </c>
       <c r="E24" t="n">
-        <v>544.9749036684756</v>
+        <v>117.3735432943156</v>
       </c>
       <c r="F24" t="n">
-        <v>384.5471873857197</v>
+        <v>117.3735432943156</v>
       </c>
       <c r="G24" t="n">
-        <v>235.2457971908144</v>
+        <v>117.3735432943156</v>
       </c>
       <c r="H24" t="n">
         <v>117.3735432943156</v>
       </c>
       <c r="I24" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="J24" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="K24" t="n">
-        <v>168.8451827348549</v>
+        <v>229.1172666354625</v>
       </c>
       <c r="L24" t="n">
-        <v>487.4258929696755</v>
+        <v>547.697976870283</v>
       </c>
       <c r="M24" t="n">
-        <v>903.9492195498331</v>
+        <v>964.2213034504405</v>
       </c>
       <c r="N24" t="n">
-        <v>1349.916568747607</v>
+        <v>1410.188652648214</v>
       </c>
       <c r="O24" t="n">
-        <v>1702.142484109524</v>
+        <v>1762.414568010131</v>
       </c>
       <c r="P24" t="n">
-        <v>1962.758332226577</v>
+        <v>2023.030416127184</v>
       </c>
       <c r="Q24" t="n">
         <v>2074.271189987251</v>
@@ -6095,25 +6095,25 @@
         <v>1996.906009940379</v>
       </c>
       <c r="S24" t="n">
-        <v>1996.906009940379</v>
+        <v>1820.945642797079</v>
       </c>
       <c r="T24" t="n">
-        <v>1783.575437181667</v>
+        <v>1607.615070038367</v>
       </c>
       <c r="U24" t="n">
-        <v>1544.013340679073</v>
+        <v>1368.052973535772</v>
       </c>
       <c r="V24" t="n">
-        <v>1544.013340679073</v>
+        <v>1124.973255439407</v>
       </c>
       <c r="W24" t="n">
-        <v>1274.614771409364</v>
+        <v>855.5746861696979</v>
       </c>
       <c r="X24" t="n">
-        <v>1274.614771409364</v>
+        <v>636.0666917863942</v>
       </c>
       <c r="Y24" t="n">
-        <v>1048.974078344692</v>
+        <v>410.4259987217219</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>209.6239904381009</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="C25" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="D25" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="E25" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="F25" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="G25" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="H25" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="I25" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="J25" t="n">
-        <v>41.48542379974502</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="K25" t="n">
-        <v>65.40520112761767</v>
+        <v>65.40520112761766</v>
       </c>
       <c r="L25" t="n">
         <v>149.1015267245794</v>
@@ -6159,40 +6159,40 @@
         <v>245.9434566251491</v>
       </c>
       <c r="N25" t="n">
-        <v>348.4988381446026</v>
+        <v>348.4988381446025</v>
       </c>
       <c r="O25" t="n">
-        <v>421.2276856930516</v>
+        <v>421.2276856930514</v>
       </c>
       <c r="P25" t="n">
-        <v>457.3149294941747</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="Q25" t="n">
-        <v>457.3149294941747</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="R25" t="n">
-        <v>457.3149294941747</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="S25" t="n">
-        <v>457.3149294941747</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="T25" t="n">
-        <v>457.3149294941747</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="U25" t="n">
-        <v>457.3149294941747</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="V25" t="n">
-        <v>457.3149294941747</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="W25" t="n">
-        <v>457.3149294941747</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="X25" t="n">
-        <v>457.3149294941747</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="Y25" t="n">
-        <v>389.0350214128161</v>
+        <v>41.48542379974501</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>395.2283504474004</v>
+        <v>900.3136625818014</v>
       </c>
       <c r="C26" t="n">
-        <v>41.48542379974501</v>
+        <v>546.570735934146</v>
       </c>
       <c r="D26" t="n">
-        <v>41.48542379974501</v>
+        <v>216.7888724950517</v>
       </c>
       <c r="E26" t="n">
-        <v>41.48542379974501</v>
+        <v>216.7888724950517</v>
       </c>
       <c r="F26" t="n">
-        <v>41.48542379974501</v>
+        <v>216.7888724950517</v>
       </c>
       <c r="G26" t="n">
-        <v>41.48542379974501</v>
+        <v>216.7888724950517</v>
       </c>
       <c r="H26" t="n">
-        <v>41.48542379974501</v>
+        <v>216.7888724950517</v>
       </c>
       <c r="I26" t="n">
         <v>41.48542379974501</v>
       </c>
       <c r="J26" t="n">
-        <v>112.4990031067732</v>
+        <v>112.4990031067731</v>
       </c>
       <c r="K26" t="n">
-        <v>326.1950157058086</v>
+        <v>326.1950157058084</v>
       </c>
       <c r="L26" t="n">
-        <v>646.2868780590439</v>
+        <v>646.2868780590437</v>
       </c>
       <c r="M26" t="n">
         <v>1031.326709710557</v>
@@ -6241,7 +6241,7 @@
         <v>1415.754452367948</v>
       </c>
       <c r="O26" t="n">
-        <v>1741.849309924159</v>
+        <v>1741.849309924158</v>
       </c>
       <c r="P26" t="n">
         <v>1976.016153761811</v>
@@ -6250,28 +6250,28 @@
         <v>2074.271189987251</v>
       </c>
       <c r="R26" t="n">
-        <v>2074.271189987251</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="S26" t="n">
-        <v>2074.271189987251</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="T26" t="n">
-        <v>1863.967730161296</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="U26" t="n">
-        <v>1863.967730161296</v>
+        <v>1988.447593294362</v>
       </c>
       <c r="V26" t="n">
-        <v>1863.967730161296</v>
+        <v>1664.326599749764</v>
       </c>
       <c r="W26" t="n">
-        <v>1522.658170741329</v>
+        <v>1664.326599749764</v>
       </c>
       <c r="X26" t="n">
-        <v>1159.241287615363</v>
+        <v>1664.326599749764</v>
       </c>
       <c r="Y26" t="n">
-        <v>773.0942498189493</v>
+        <v>1278.17956195335</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.796709447799</v>
+        <v>487.7911787685936</v>
       </c>
       <c r="C27" t="n">
-        <v>531.3844351807627</v>
+        <v>487.7911787685936</v>
       </c>
       <c r="D27" t="n">
-        <v>531.3844351807627</v>
+        <v>327.0110625296254</v>
       </c>
       <c r="E27" t="n">
-        <v>531.3844351807627</v>
+        <v>327.0110625296254</v>
       </c>
       <c r="F27" t="n">
-        <v>370.9567188980068</v>
+        <v>308.6590678911491</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6553287031015</v>
+        <v>159.3576776962439</v>
       </c>
       <c r="H27" t="n">
-        <v>117.3735432943156</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="I27" t="n">
         <v>41.48542379974501</v>
@@ -6314,10 +6314,10 @@
         <v>583.3160597198421</v>
       </c>
       <c r="M27" t="n">
-        <v>903.9492195498328</v>
+        <v>999.8393862999995</v>
       </c>
       <c r="N27" t="n">
-        <v>1349.916568747607</v>
+        <v>1445.806735497773</v>
       </c>
       <c r="O27" t="n">
         <v>1702.142484109524</v>
@@ -6329,28 +6329,28 @@
         <v>2074.271189987251</v>
       </c>
       <c r="R27" t="n">
-        <v>1996.906009940379</v>
+        <v>2074.271189987251</v>
       </c>
       <c r="S27" t="n">
-        <v>1820.945642797079</v>
+        <v>1898.31082284395</v>
       </c>
       <c r="T27" t="n">
-        <v>1607.615070038367</v>
+        <v>1684.980250085238</v>
       </c>
       <c r="U27" t="n">
-        <v>1368.052973535772</v>
+        <v>1445.418153582644</v>
       </c>
       <c r="V27" t="n">
-        <v>1124.973255439407</v>
+        <v>1202.338435486278</v>
       </c>
       <c r="W27" t="n">
-        <v>1124.973255439407</v>
+        <v>932.9398662165696</v>
       </c>
       <c r="X27" t="n">
-        <v>1124.973255439407</v>
+        <v>713.431871833266</v>
       </c>
       <c r="Y27" t="n">
-        <v>899.3325623747342</v>
+        <v>487.7911787685936</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>457.3149294941746</v>
       </c>
       <c r="R28" t="n">
-        <v>287.4786653878398</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="S28" t="n">
-        <v>63.47933340878851</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="T28" t="n">
-        <v>63.47933340878851</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="U28" t="n">
-        <v>63.47933340878851</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="V28" t="n">
-        <v>41.48542379974501</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="W28" t="n">
         <v>41.48542379974501</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>970.5157177198787</v>
+        <v>817.9200856996725</v>
       </c>
       <c r="C29" t="n">
-        <v>970.5157177198787</v>
+        <v>817.9200856996725</v>
       </c>
       <c r="D29" t="n">
-        <v>970.5157177198787</v>
+        <v>817.9200856996725</v>
       </c>
       <c r="E29" t="n">
-        <v>970.5157177198787</v>
+        <v>817.9200856996725</v>
       </c>
       <c r="F29" t="n">
-        <v>970.5157177198787</v>
+        <v>410.6481163663256</v>
       </c>
       <c r="G29" t="n">
-        <v>549.2143358803332</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="H29" t="n">
-        <v>216.7888724950517</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="I29" t="n">
         <v>41.48542379974501</v>
       </c>
       <c r="J29" t="n">
-        <v>112.499003106773</v>
+        <v>112.4990031067731</v>
       </c>
       <c r="K29" t="n">
         <v>326.1950157058084</v>
       </c>
       <c r="L29" t="n">
-        <v>646.2868780590439</v>
+        <v>646.2868780590437</v>
       </c>
       <c r="M29" t="n">
         <v>1031.326709710557</v>
@@ -6496,19 +6496,19 @@
         <v>1581.933022867635</v>
       </c>
       <c r="U29" t="n">
-        <v>1329.397106607706</v>
+        <v>1581.933022867635</v>
       </c>
       <c r="V29" t="n">
-        <v>1005.276113063108</v>
+        <v>1581.933022867635</v>
       </c>
       <c r="W29" t="n">
-        <v>970.5157177198787</v>
+        <v>1581.933022867635</v>
       </c>
       <c r="X29" t="n">
-        <v>970.5157177198787</v>
+        <v>1581.933022867635</v>
       </c>
       <c r="Y29" t="n">
-        <v>970.5157177198787</v>
+        <v>1195.785985071221</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1068.730498053066</v>
+        <v>410.4259987217219</v>
       </c>
       <c r="C30" t="n">
-        <v>879.3182237860294</v>
+        <v>221.0137244546856</v>
       </c>
       <c r="D30" t="n">
-        <v>718.5381075470611</v>
+        <v>221.0137244546856</v>
       </c>
       <c r="E30" t="n">
-        <v>544.9749036684756</v>
+        <v>221.0137244546856</v>
       </c>
       <c r="F30" t="n">
-        <v>384.5471873857197</v>
+        <v>221.0137244546856</v>
       </c>
       <c r="G30" t="n">
-        <v>235.2457971908144</v>
+        <v>159.3576776962439</v>
       </c>
       <c r="H30" t="n">
-        <v>117.3735432943156</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="I30" t="n">
         <v>41.48542379974501</v>
@@ -6560,7 +6560,7 @@
         <v>1798.03265085969</v>
       </c>
       <c r="P30" t="n">
-        <v>2058.648498976743</v>
+        <v>1962.758332226576</v>
       </c>
       <c r="Q30" t="n">
         <v>2074.271189987251</v>
@@ -6578,16 +6578,16 @@
         <v>1368.052973535772</v>
       </c>
       <c r="V30" t="n">
-        <v>1368.052973535772</v>
+        <v>1124.973255439407</v>
       </c>
       <c r="W30" t="n">
-        <v>1368.052973535772</v>
+        <v>855.5746861696979</v>
       </c>
       <c r="X30" t="n">
-        <v>1148.544979152469</v>
+        <v>636.0666917863942</v>
       </c>
       <c r="Y30" t="n">
-        <v>1148.544979152469</v>
+        <v>410.4259987217219</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="C31" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="D31" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="E31" t="n">
-        <v>1931.163976641569</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="F31" t="n">
-        <v>1790.833792582532</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="G31" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="H31" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="I31" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="J31" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="K31" t="n">
-        <v>1682.361461620693</v>
+        <v>65.40520112761766</v>
       </c>
       <c r="L31" t="n">
-        <v>1766.057787217655</v>
+        <v>149.1015267245794</v>
       </c>
       <c r="M31" t="n">
-        <v>1862.899717118225</v>
+        <v>245.9434566251491</v>
       </c>
       <c r="N31" t="n">
-        <v>1965.455098637678</v>
+        <v>348.4988381446025</v>
       </c>
       <c r="O31" t="n">
-        <v>2038.183946186128</v>
+        <v>421.2276856930514</v>
       </c>
       <c r="P31" t="n">
-        <v>2074.271189987251</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2074.271189987251</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="R31" t="n">
-        <v>2074.271189987251</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="S31" t="n">
-        <v>2074.271189987251</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="T31" t="n">
-        <v>2074.271189987251</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="U31" t="n">
-        <v>2074.271189987251</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="V31" t="n">
-        <v>2074.271189987251</v>
+        <v>334.7285622738211</v>
       </c>
       <c r="W31" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="X31" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="Y31" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974501</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1323.017040329798</v>
+        <v>1224.4346561264</v>
       </c>
       <c r="C32" t="n">
-        <v>1323.017040329798</v>
+        <v>1224.4346561264</v>
       </c>
       <c r="D32" t="n">
-        <v>1323.017040329798</v>
+        <v>1224.4346561264</v>
       </c>
       <c r="E32" t="n">
-        <v>1323.017040329798</v>
+        <v>849.2034318217171</v>
       </c>
       <c r="F32" t="n">
-        <v>915.7450709964507</v>
+        <v>441.9314624883701</v>
       </c>
       <c r="G32" t="n">
-        <v>494.4436891569052</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="H32" t="n">
-        <v>162.0182257716237</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="I32" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="J32" t="n">
-        <v>112.4990031067734</v>
+        <v>112.4990031067737</v>
       </c>
       <c r="K32" t="n">
-        <v>326.1950157058086</v>
+        <v>326.1950157058093</v>
       </c>
       <c r="L32" t="n">
-        <v>646.2868780590439</v>
+        <v>646.2868780590447</v>
       </c>
       <c r="M32" t="n">
-        <v>1031.326709710557</v>
+        <v>1031.326709710558</v>
       </c>
       <c r="N32" t="n">
         <v>1415.754452367948</v>
       </c>
       <c r="O32" t="n">
-        <v>1741.849309924158</v>
+        <v>1741.849309924159</v>
       </c>
       <c r="P32" t="n">
         <v>1976.016153761811</v>
@@ -6724,28 +6724,28 @@
         <v>2074.271189987251</v>
       </c>
       <c r="R32" t="n">
-        <v>1988.447593294362</v>
+        <v>1988.447593294363</v>
       </c>
       <c r="S32" t="n">
-        <v>1988.447593294362</v>
+        <v>1988.447593294363</v>
       </c>
       <c r="T32" t="n">
-        <v>1988.447593294362</v>
+        <v>1988.447593294363</v>
       </c>
       <c r="U32" t="n">
-        <v>1988.447593294362</v>
+        <v>1988.447593294363</v>
       </c>
       <c r="V32" t="n">
-        <v>1664.326599749764</v>
+        <v>1988.447593294363</v>
       </c>
       <c r="W32" t="n">
-        <v>1323.017040329798</v>
+        <v>1988.447593294363</v>
       </c>
       <c r="X32" t="n">
-        <v>1323.017040329798</v>
+        <v>1988.447593294363</v>
       </c>
       <c r="Y32" t="n">
-        <v>1323.017040329798</v>
+        <v>1602.300555497949</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>391.6778143057495</v>
+        <v>380.1990882616866</v>
       </c>
       <c r="C33" t="n">
-        <v>202.2655400387133</v>
+        <v>190.7868139946503</v>
       </c>
       <c r="D33" t="n">
-        <v>41.48542379974501</v>
+        <v>190.7868139946503</v>
       </c>
       <c r="E33" t="n">
-        <v>41.48542379974501</v>
+        <v>190.7868139946503</v>
       </c>
       <c r="F33" t="n">
-        <v>41.48542379974501</v>
+        <v>190.7868139946503</v>
       </c>
       <c r="G33" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="H33" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="I33" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="J33" t="n">
-        <v>77.10350664930397</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="K33" t="n">
-        <v>264.7353494850215</v>
+        <v>229.1172666354626</v>
       </c>
       <c r="L33" t="n">
-        <v>583.3160597198421</v>
+        <v>547.6979768702831</v>
       </c>
       <c r="M33" t="n">
-        <v>999.8393862999995</v>
+        <v>964.2213034504406</v>
       </c>
       <c r="N33" t="n">
-        <v>1445.806735497773</v>
+        <v>1410.188652648214</v>
       </c>
       <c r="O33" t="n">
-        <v>1798.03265085969</v>
+        <v>1762.414568010131</v>
       </c>
       <c r="P33" t="n">
-        <v>2058.648498976743</v>
+        <v>2023.030416127184</v>
       </c>
       <c r="Q33" t="n">
         <v>2074.271189987251</v>
@@ -6812,19 +6812,19 @@
         <v>1607.615070038367</v>
       </c>
       <c r="U33" t="n">
-        <v>1368.052973535772</v>
+        <v>1368.052973535773</v>
       </c>
       <c r="V33" t="n">
         <v>1124.973255439407</v>
       </c>
       <c r="W33" t="n">
-        <v>855.5746861696979</v>
+        <v>855.5746861696983</v>
       </c>
       <c r="X33" t="n">
-        <v>795.8543602973571</v>
+        <v>636.0666917863947</v>
       </c>
       <c r="Y33" t="n">
-        <v>570.2136672326847</v>
+        <v>410.4259987217224</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="C34" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="D34" t="n">
-        <v>1941.87908169754</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="E34" t="n">
-        <v>1798.771868351858</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="F34" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="G34" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="H34" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="I34" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="J34" t="n">
-        <v>1658.441684292821</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="K34" t="n">
-        <v>1682.361461620693</v>
+        <v>65.40520112761766</v>
       </c>
       <c r="L34" t="n">
-        <v>1766.057787217655</v>
+        <v>149.1015267245794</v>
       </c>
       <c r="M34" t="n">
-        <v>1862.899717118225</v>
+        <v>245.9434566251491</v>
       </c>
       <c r="N34" t="n">
-        <v>1965.455098637678</v>
+        <v>348.4988381446025</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.183946186128</v>
+        <v>421.2276856930514</v>
       </c>
       <c r="P34" t="n">
-        <v>2074.271189987251</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2074.271189987251</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="R34" t="n">
-        <v>2074.271189987251</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="S34" t="n">
-        <v>2074.271189987251</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="T34" t="n">
-        <v>2074.271189987251</v>
+        <v>234.6807020517709</v>
       </c>
       <c r="U34" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="V34" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="W34" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="X34" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="Y34" t="n">
-        <v>2074.271189987251</v>
+        <v>41.48542379974502</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1244.141262166602</v>
+        <v>1240.623463447669</v>
       </c>
       <c r="C35" t="n">
-        <v>890.3983355189466</v>
+        <v>886.8805368000135</v>
       </c>
       <c r="D35" t="n">
-        <v>549.2143358803332</v>
+        <v>545.6965371614001</v>
       </c>
       <c r="E35" t="n">
-        <v>549.2143358803332</v>
+        <v>545.6965371614001</v>
       </c>
       <c r="F35" t="n">
-        <v>549.2143358803332</v>
+        <v>462.7868056392905</v>
       </c>
       <c r="G35" t="n">
-        <v>549.2143358803332</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="H35" t="n">
-        <v>216.7888724950517</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="I35" t="n">
         <v>41.48542379974501</v>
       </c>
       <c r="J35" t="n">
-        <v>112.4990031067733</v>
+        <v>112.4990031067734</v>
       </c>
       <c r="K35" t="n">
         <v>326.1950157058086</v>
       </c>
       <c r="L35" t="n">
-        <v>646.2868780590439</v>
+        <v>646.2868780590443</v>
       </c>
       <c r="M35" t="n">
         <v>1031.326709710557</v>
@@ -6970,19 +6970,19 @@
         <v>1581.933022867635</v>
       </c>
       <c r="U35" t="n">
-        <v>1329.397106607706</v>
+        <v>1581.933022867635</v>
       </c>
       <c r="V35" t="n">
-        <v>1244.141262166602</v>
+        <v>1581.933022867635</v>
       </c>
       <c r="W35" t="n">
-        <v>1244.141262166602</v>
+        <v>1240.623463447669</v>
       </c>
       <c r="X35" t="n">
-        <v>1244.141262166602</v>
+        <v>1240.623463447669</v>
       </c>
       <c r="Y35" t="n">
-        <v>1244.141262166602</v>
+        <v>1240.623463447669</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1068.730498053066</v>
+        <v>407.850512938087</v>
       </c>
       <c r="C36" t="n">
-        <v>879.3182237860294</v>
+        <v>218.4382386710507</v>
       </c>
       <c r="D36" t="n">
-        <v>718.5381075470611</v>
+        <v>218.4382386710507</v>
       </c>
       <c r="E36" t="n">
-        <v>544.9749036684756</v>
+        <v>44.87503479246516</v>
       </c>
       <c r="F36" t="n">
-        <v>384.5471873857197</v>
+        <v>44.87503479246516</v>
       </c>
       <c r="G36" t="n">
-        <v>235.2457971908144</v>
+        <v>44.87503479246516</v>
       </c>
       <c r="H36" t="n">
-        <v>117.3735432943156</v>
+        <v>44.87503479246516</v>
       </c>
       <c r="I36" t="n">
         <v>41.48542379974501</v>
       </c>
       <c r="J36" t="n">
-        <v>77.10350664930397</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="K36" t="n">
-        <v>264.7353494850215</v>
+        <v>229.1172666354625</v>
       </c>
       <c r="L36" t="n">
-        <v>583.3160597198421</v>
+        <v>547.697976870283</v>
       </c>
       <c r="M36" t="n">
-        <v>999.8393862999995</v>
+        <v>964.2213034504405</v>
       </c>
       <c r="N36" t="n">
-        <v>1445.806735497773</v>
+        <v>1410.188652648214</v>
       </c>
       <c r="O36" t="n">
-        <v>1798.03265085969</v>
+        <v>1762.414568010131</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.648498976743</v>
+        <v>2023.030416127184</v>
       </c>
       <c r="Q36" t="n">
         <v>2074.271189987251</v>
@@ -7049,19 +7049,19 @@
         <v>1783.575437181667</v>
       </c>
       <c r="U36" t="n">
-        <v>1783.575437181667</v>
+        <v>1544.013340679073</v>
       </c>
       <c r="V36" t="n">
-        <v>1540.495719085301</v>
+        <v>1300.933622582707</v>
       </c>
       <c r="W36" t="n">
-        <v>1540.495719085301</v>
+        <v>1031.535053312998</v>
       </c>
       <c r="X36" t="n">
-        <v>1472.907044044673</v>
+        <v>812.0270589296945</v>
       </c>
       <c r="Y36" t="n">
-        <v>1247.266350980001</v>
+        <v>586.3863658650221</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.48542379974501</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="C37" t="n">
-        <v>41.48542379974501</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="D37" t="n">
-        <v>41.48542379974501</v>
+        <v>324.9228212044638</v>
       </c>
       <c r="E37" t="n">
-        <v>41.48542379974501</v>
+        <v>181.815607858782</v>
       </c>
       <c r="F37" t="n">
         <v>41.48542379974501</v>
@@ -7128,19 +7128,19 @@
         <v>457.3149294941746</v>
       </c>
       <c r="U37" t="n">
-        <v>165.7858950313941</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="V37" t="n">
-        <v>165.7858950313941</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="W37" t="n">
-        <v>41.48542379974501</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="X37" t="n">
-        <v>41.48542379974501</v>
+        <v>457.3149294941746</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.48542379974501</v>
+        <v>457.3149294941746</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1247.164810796848</v>
+        <v>1211.242774611251</v>
       </c>
       <c r="C38" t="n">
-        <v>1247.164810796848</v>
+        <v>1211.242774611251</v>
       </c>
       <c r="D38" t="n">
-        <v>1247.164810796848</v>
+        <v>870.0587749726376</v>
       </c>
       <c r="E38" t="n">
-        <v>871.9335864921646</v>
+        <v>870.0587749726376</v>
       </c>
       <c r="F38" t="n">
-        <v>871.9335864921646</v>
+        <v>462.7868056392905</v>
       </c>
       <c r="G38" t="n">
-        <v>450.6322046526191</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="H38" t="n">
-        <v>118.2067412673376</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="I38" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="J38" t="n">
-        <v>112.4990031067734</v>
+        <v>112.4990031067737</v>
       </c>
       <c r="K38" t="n">
-        <v>326.1950157058087</v>
+        <v>326.1950157058093</v>
       </c>
       <c r="L38" t="n">
-        <v>646.2868780590439</v>
+        <v>646.2868780590447</v>
       </c>
       <c r="M38" t="n">
-        <v>1031.326709710557</v>
+        <v>1031.326709710558</v>
       </c>
       <c r="N38" t="n">
         <v>1415.754452367948</v>
       </c>
       <c r="O38" t="n">
-        <v>1741.849309924158</v>
+        <v>1741.849309924159</v>
       </c>
       <c r="P38" t="n">
         <v>1976.016153761811</v>
@@ -7198,28 +7198,28 @@
         <v>2074.271189987251</v>
       </c>
       <c r="R38" t="n">
-        <v>1988.447593294362</v>
+        <v>2074.271189987251</v>
       </c>
       <c r="S38" t="n">
-        <v>1988.447593294362</v>
+        <v>2074.271189987251</v>
       </c>
       <c r="T38" t="n">
-        <v>1988.447593294362</v>
+        <v>1857.295321029262</v>
       </c>
       <c r="U38" t="n">
-        <v>1988.447593294362</v>
+        <v>1604.759404769333</v>
       </c>
       <c r="V38" t="n">
-        <v>1988.447593294362</v>
+        <v>1597.389812407665</v>
       </c>
       <c r="W38" t="n">
-        <v>1988.447593294362</v>
+        <v>1597.389812407665</v>
       </c>
       <c r="X38" t="n">
-        <v>1625.030710168397</v>
+        <v>1597.389812407665</v>
       </c>
       <c r="Y38" t="n">
-        <v>1625.030710168397</v>
+        <v>1211.242774611251</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1068.730498053066</v>
+        <v>879.3182237860294</v>
       </c>
       <c r="C39" t="n">
         <v>879.3182237860294</v>
@@ -7250,55 +7250,55 @@
         <v>117.3735432943156</v>
       </c>
       <c r="I39" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="J39" t="n">
         <v>77.10350664930397</v>
       </c>
       <c r="K39" t="n">
-        <v>264.7353494850215</v>
+        <v>168.8451827348553</v>
       </c>
       <c r="L39" t="n">
-        <v>583.3160597198421</v>
+        <v>487.4258929696758</v>
       </c>
       <c r="M39" t="n">
-        <v>999.8393862999995</v>
+        <v>903.9492195498333</v>
       </c>
       <c r="N39" t="n">
-        <v>1445.806735497773</v>
+        <v>1349.916568747607</v>
       </c>
       <c r="O39" t="n">
-        <v>1798.03265085969</v>
+        <v>1702.142484109524</v>
       </c>
       <c r="P39" t="n">
-        <v>2058.648498976743</v>
+        <v>1962.758332226577</v>
       </c>
       <c r="Q39" t="n">
         <v>2074.271189987251</v>
       </c>
       <c r="R39" t="n">
-        <v>1996.906009940379</v>
+        <v>2074.271189987251</v>
       </c>
       <c r="S39" t="n">
-        <v>1820.945642797079</v>
+        <v>1898.310822843951</v>
       </c>
       <c r="T39" t="n">
-        <v>1607.615070038367</v>
+        <v>1684.980250085239</v>
       </c>
       <c r="U39" t="n">
-        <v>1368.052973535772</v>
+        <v>1445.418153582645</v>
       </c>
       <c r="V39" t="n">
-        <v>1368.052973535772</v>
+        <v>1277.362071096268</v>
       </c>
       <c r="W39" t="n">
-        <v>1368.052973535772</v>
+        <v>1277.362071096268</v>
       </c>
       <c r="X39" t="n">
-        <v>1368.052973535772</v>
+        <v>1057.854076712965</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.266350980001</v>
+        <v>1057.854076712965</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="C40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="D40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="E40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="F40" t="n">
-        <v>41.48542379974501</v>
+        <v>92.98541345608626</v>
       </c>
       <c r="G40" t="n">
-        <v>41.48542379974501</v>
+        <v>92.98541345608626</v>
       </c>
       <c r="H40" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="I40" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="J40" t="n">
-        <v>41.48542379974501</v>
+        <v>41.48542379974502</v>
       </c>
       <c r="K40" t="n">
         <v>65.40520112761766</v>
@@ -7359,25 +7359,25 @@
         <v>457.3149294941746</v>
       </c>
       <c r="S40" t="n">
-        <v>457.3149294941746</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="T40" t="n">
-        <v>333.0144582625255</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="U40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="V40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="W40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="X40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.48542379974501</v>
+        <v>233.3155975151233</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1005.276113063108</v>
+        <v>736.4123500860138</v>
       </c>
       <c r="C41" t="n">
-        <v>1005.276113063108</v>
+        <v>382.6694234383584</v>
       </c>
       <c r="D41" t="n">
-        <v>924.4455601850163</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="E41" t="n">
-        <v>549.2143358803334</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="F41" t="n">
-        <v>549.2143358803334</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="G41" t="n">
-        <v>549.2143358803334</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="H41" t="n">
-        <v>216.7888724950518</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="I41" t="n">
         <v>41.48542379974501</v>
       </c>
       <c r="J41" t="n">
-        <v>112.4990031067733</v>
+        <v>112.4990031067731</v>
       </c>
       <c r="K41" t="n">
-        <v>326.1950157058085</v>
+        <v>326.1950157058083</v>
       </c>
       <c r="L41" t="n">
-        <v>646.2868780590443</v>
+        <v>646.2868780590436</v>
       </c>
       <c r="M41" t="n">
         <v>1031.326709710557</v>
@@ -7435,28 +7435,28 @@
         <v>2074.27118998725</v>
       </c>
       <c r="R41" t="n">
-        <v>1988.447593294362</v>
+        <v>2074.27118998725</v>
       </c>
       <c r="S41" t="n">
-        <v>1798.908891825624</v>
+        <v>2074.27118998725</v>
       </c>
       <c r="T41" t="n">
-        <v>1581.933022867635</v>
+        <v>1857.295321029261</v>
       </c>
       <c r="U41" t="n">
-        <v>1329.397106607706</v>
+        <v>1604.759404769332</v>
       </c>
       <c r="V41" t="n">
-        <v>1005.276113063108</v>
+        <v>1280.638411224734</v>
       </c>
       <c r="W41" t="n">
-        <v>1005.276113063108</v>
+        <v>939.3288518047673</v>
       </c>
       <c r="X41" t="n">
-        <v>1005.276113063108</v>
+        <v>939.3288518047673</v>
       </c>
       <c r="Y41" t="n">
-        <v>1005.276113063108</v>
+        <v>736.4123500860138</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>938.1083622462643</v>
+        <v>950.8582441565668</v>
       </c>
       <c r="C42" t="n">
-        <v>879.3182237860294</v>
+        <v>761.4459698895305</v>
       </c>
       <c r="D42" t="n">
-        <v>718.5381075470611</v>
+        <v>600.6658536505622</v>
       </c>
       <c r="E42" t="n">
-        <v>544.9749036684756</v>
+        <v>427.1026497719767</v>
       </c>
       <c r="F42" t="n">
-        <v>384.5471873857197</v>
+        <v>266.6749334892208</v>
       </c>
       <c r="G42" t="n">
-        <v>235.2457971908144</v>
+        <v>117.3735432943156</v>
       </c>
       <c r="H42" t="n">
         <v>117.3735432943156</v>
@@ -7490,25 +7490,25 @@
         <v>41.48542379974501</v>
       </c>
       <c r="J42" t="n">
-        <v>77.10350664930394</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="K42" t="n">
-        <v>168.8451827348545</v>
+        <v>229.1172666354625</v>
       </c>
       <c r="L42" t="n">
-        <v>487.425892969675</v>
+        <v>547.697976870283</v>
       </c>
       <c r="M42" t="n">
-        <v>903.9492195498324</v>
+        <v>964.2213034504405</v>
       </c>
       <c r="N42" t="n">
-        <v>1349.916568747606</v>
+        <v>1410.188652648214</v>
       </c>
       <c r="O42" t="n">
-        <v>1702.142484109523</v>
+        <v>1762.414568010131</v>
       </c>
       <c r="P42" t="n">
-        <v>1962.758332226576</v>
+        <v>2023.030416127184</v>
       </c>
       <c r="Q42" t="n">
         <v>2074.27118998725</v>
@@ -7517,25 +7517,25 @@
         <v>2074.27118998725</v>
       </c>
       <c r="S42" t="n">
-        <v>2074.27118998725</v>
+        <v>1898.31082284395</v>
       </c>
       <c r="T42" t="n">
-        <v>2074.27118998725</v>
+        <v>1684.980250085238</v>
       </c>
       <c r="U42" t="n">
-        <v>2074.27118998725</v>
+        <v>1445.418153582644</v>
       </c>
       <c r="V42" t="n">
-        <v>1831.191471890884</v>
+        <v>1202.338435486278</v>
       </c>
       <c r="W42" t="n">
-        <v>1561.792902621175</v>
+        <v>1202.338435486278</v>
       </c>
       <c r="X42" t="n">
-        <v>1342.284908237872</v>
+        <v>982.8304411029742</v>
       </c>
       <c r="Y42" t="n">
-        <v>1116.644215173199</v>
+        <v>982.8304411029742</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.48542379974501</v>
+        <v>209.6239904381009</v>
       </c>
       <c r="C43" t="n">
         <v>41.48542379974501</v>
@@ -7596,25 +7596,25 @@
         <v>457.3149294941744</v>
       </c>
       <c r="S43" t="n">
-        <v>457.3149294941744</v>
+        <v>233.3155975151231</v>
       </c>
       <c r="T43" t="n">
-        <v>457.3149294941744</v>
+        <v>209.6239904381009</v>
       </c>
       <c r="U43" t="n">
-        <v>165.7858950313939</v>
+        <v>209.6239904381009</v>
       </c>
       <c r="V43" t="n">
-        <v>165.7858950313939</v>
+        <v>209.6239904381009</v>
       </c>
       <c r="W43" t="n">
-        <v>165.7858950313939</v>
+        <v>209.6239904381009</v>
       </c>
       <c r="X43" t="n">
-        <v>41.48542379974501</v>
+        <v>209.6239904381009</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.48542379974501</v>
+        <v>209.6239904381009</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>917.221528098768</v>
+        <v>1857.295321029261</v>
       </c>
       <c r="C44" t="n">
-        <v>917.221528098768</v>
+        <v>1503.552394381605</v>
       </c>
       <c r="D44" t="n">
-        <v>576.0375284601546</v>
+        <v>1162.368394742992</v>
       </c>
       <c r="E44" t="n">
-        <v>200.8063041554716</v>
+        <v>787.137170438309</v>
       </c>
       <c r="F44" t="n">
-        <v>200.8063041554716</v>
+        <v>787.137170438309</v>
       </c>
       <c r="G44" t="n">
-        <v>41.48542379974501</v>
+        <v>365.8357885987635</v>
       </c>
       <c r="H44" t="n">
         <v>41.48542379974501</v>
@@ -7681,19 +7681,19 @@
         <v>1857.295321029261</v>
       </c>
       <c r="U44" t="n">
-        <v>1604.759404769332</v>
+        <v>1857.295321029261</v>
       </c>
       <c r="V44" t="n">
-        <v>1280.638411224734</v>
+        <v>1857.295321029261</v>
       </c>
       <c r="W44" t="n">
-        <v>1280.638411224734</v>
+        <v>1857.295321029261</v>
       </c>
       <c r="X44" t="n">
-        <v>917.221528098768</v>
+        <v>1857.295321029261</v>
       </c>
       <c r="Y44" t="n">
-        <v>917.221528098768</v>
+        <v>1857.295321029261</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>487.7911787685932</v>
+        <v>1068.730498053066</v>
       </c>
       <c r="C45" t="n">
-        <v>298.3789045015569</v>
+        <v>879.3182237860294</v>
       </c>
       <c r="D45" t="n">
-        <v>298.3789045015569</v>
+        <v>718.5381075470611</v>
       </c>
       <c r="E45" t="n">
-        <v>124.8157006229714</v>
+        <v>544.9749036684756</v>
       </c>
       <c r="F45" t="n">
-        <v>124.8157006229714</v>
+        <v>384.5471873857197</v>
       </c>
       <c r="G45" t="n">
-        <v>124.8157006229714</v>
+        <v>235.2457971908144</v>
       </c>
       <c r="H45" t="n">
         <v>117.3735432943156</v>
@@ -7727,25 +7727,25 @@
         <v>41.48542379974501</v>
       </c>
       <c r="J45" t="n">
-        <v>77.10350664930394</v>
+        <v>41.48542379974501</v>
       </c>
       <c r="K45" t="n">
-        <v>264.7353494850214</v>
+        <v>229.1172666354625</v>
       </c>
       <c r="L45" t="n">
-        <v>583.3160597198419</v>
+        <v>547.697976870283</v>
       </c>
       <c r="M45" t="n">
-        <v>999.8393862999992</v>
+        <v>964.2213034504405</v>
       </c>
       <c r="N45" t="n">
-        <v>1349.916568747606</v>
+        <v>1410.188652648214</v>
       </c>
       <c r="O45" t="n">
-        <v>1702.142484109523</v>
+        <v>1762.414568010131</v>
       </c>
       <c r="P45" t="n">
-        <v>1962.758332226576</v>
+        <v>2023.030416127184</v>
       </c>
       <c r="Q45" t="n">
         <v>2074.27118998725</v>
@@ -7754,25 +7754,25 @@
         <v>2074.27118998725</v>
       </c>
       <c r="S45" t="n">
-        <v>1898.31082284395</v>
+        <v>2074.27118998725</v>
       </c>
       <c r="T45" t="n">
-        <v>1684.980250085238</v>
+        <v>2074.27118998725</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.418153582644</v>
+        <v>1985.385331410748</v>
       </c>
       <c r="V45" t="n">
-        <v>1202.338435486278</v>
+        <v>1742.305613314382</v>
       </c>
       <c r="W45" t="n">
-        <v>932.9398662165692</v>
+        <v>1472.907044044673</v>
       </c>
       <c r="X45" t="n">
-        <v>713.4318718332655</v>
+        <v>1472.907044044673</v>
       </c>
       <c r="Y45" t="n">
-        <v>487.7911787685932</v>
+        <v>1247.266350980001</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>457.3149294941744</v>
+        <v>348.5849725755788</v>
       </c>
       <c r="C46" t="n">
-        <v>324.9228212044638</v>
+        <v>348.5849725755788</v>
       </c>
       <c r="D46" t="n">
-        <v>324.9228212044638</v>
+        <v>201.9358309081943</v>
       </c>
       <c r="E46" t="n">
-        <v>181.815607858782</v>
+        <v>201.9358309081943</v>
       </c>
       <c r="F46" t="n">
-        <v>41.48542379974501</v>
+        <v>201.9358309081943</v>
       </c>
       <c r="G46" t="n">
-        <v>41.48542379974501</v>
+        <v>201.9358309081943</v>
       </c>
       <c r="H46" t="n">
         <v>41.48542379974501</v>
@@ -7836,22 +7836,22 @@
         <v>457.3149294941744</v>
       </c>
       <c r="T46" t="n">
-        <v>457.3149294941744</v>
+        <v>348.5849725755788</v>
       </c>
       <c r="U46" t="n">
-        <v>457.3149294941744</v>
+        <v>348.5849725755788</v>
       </c>
       <c r="V46" t="n">
-        <v>457.3149294941744</v>
+        <v>348.5849725755788</v>
       </c>
       <c r="W46" t="n">
-        <v>457.3149294941744</v>
+        <v>348.5849725755788</v>
       </c>
       <c r="X46" t="n">
-        <v>457.3149294941744</v>
+        <v>348.5849725755788</v>
       </c>
       <c r="Y46" t="n">
-        <v>457.3149294941744</v>
+        <v>348.5849725755788</v>
       </c>
     </row>
   </sheetData>
@@ -8777,13 +8777,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>290.4375770975183</v>
+        <v>16.71099868547248</v>
       </c>
       <c r="N12" t="n">
-        <v>253.5830635640943</v>
+        <v>272.0868590848191</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9008,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33825532046026</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>208.7758539143827</v>
+        <v>271.2716311910422</v>
       </c>
       <c r="N15" t="n">
-        <v>272.086859084819</v>
+        <v>272.0868590848191</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>15.83287853832903</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.10044548761047</v>
+        <v>72.10044548761046</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,16 +9245,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33825532046028</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>208.7758539143828</v>
+        <v>16.71099868547242</v>
       </c>
       <c r="N18" t="n">
-        <v>272.086859084819</v>
+        <v>272.0868590848191</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.10044548761049</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9482,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33825532046028</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>290.4375770975182</v>
+        <v>288.7978577702916</v>
       </c>
       <c r="N21" t="n">
-        <v>272.086859084819</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>124.7021508955439</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.10044548761049</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>45.72912943638394</v>
+        <v>45.72912943638397</v>
       </c>
       <c r="K24" t="n">
-        <v>110.4925807552543</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>75.24918962393363</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9962,13 +9962,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>204.9181270169023</v>
+        <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>255.2227828913207</v>
+        <v>158.3640285982231</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>109.5051197855817</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.27132815973243</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,7 +10427,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>45.72912943638397</v>
       </c>
       <c r="K33" t="n">
         <v>171.373473584151</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.27132815973243</v>
+        <v>75.24918962393409</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>45.72912943638397</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.27132815973243</v>
+        <v>75.24918962393363</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10904,7 +10904,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>74.51471929105381</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.27132815973243</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>45.72912943638399</v>
       </c>
       <c r="K42" t="n">
-        <v>74.51471929105301</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>75.24918962393319</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>45.72912943638399</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>213.7551042815249</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>75.24918962393319</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23272,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.8000930853933</v>
+        <v>104.8964416917628</v>
       </c>
       <c r="H11" t="n">
-        <v>336.3901630656106</v>
+        <v>336.3901630656107</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>129.6732602927343</v>
       </c>
       <c r="S11" t="n">
-        <v>203.8617493554951</v>
+        <v>178.3237083104551</v>
       </c>
       <c r="T11" t="n">
         <v>217.9216867371346</v>
       </c>
       <c r="U11" t="n">
-        <v>175.4511537025542</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.976132215521375</v>
+        <v>7.976132215521488</v>
       </c>
       <c r="W11" t="n">
-        <v>24.99281243213625</v>
+        <v>24.99281243213636</v>
       </c>
       <c r="X11" t="n">
-        <v>46.87906290107549</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.1891827742633</v>
       </c>
       <c r="H12" t="n">
-        <v>89.61006151506739</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I12" t="n">
         <v>88.2403386428762</v>
@@ -23387,19 +23387,19 @@
         <v>100.2349341647554</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>181.2740768417615</v>
       </c>
       <c r="T12" t="n">
-        <v>212.7321843834112</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1915285955489</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>102.3064505071382</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -23442,7 +23442,7 @@
         <v>87.31837205263562</v>
       </c>
       <c r="K13" t="n">
-        <v>12.93027715900568</v>
+        <v>12.9302771590057</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.160723434805078</v>
+        <v>2.160723434805092</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.22540817413697</v>
+        <v>88.22540817413699</v>
       </c>
       <c r="R13" t="n">
-        <v>17.90725137048579</v>
+        <v>182.4927834607991</v>
       </c>
       <c r="S13" t="n">
         <v>227.3230889191529</v>
@@ -23475,7 +23475,7 @@
         <v>288.6311580469787</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>80.52348309413665</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>61.1835889842028</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>312.234118597187</v>
       </c>
       <c r="E14" t="n">
-        <v>296.8625706617213</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>90.29559824638301</v>
+        <v>90.29559824638295</v>
       </c>
       <c r="G14" t="n">
         <v>104.8964416917628</v>
       </c>
       <c r="H14" t="n">
-        <v>23.4865116719802</v>
+        <v>336.3901630656106</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>217.9216867371346</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0674951024693</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.48980567807799</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -23588,13 +23588,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.1891827742633</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>120.3713202691058</v>
       </c>
       <c r="I15" t="n">
-        <v>88.2403386428762</v>
+        <v>88.24033864287618</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.2349341647554</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>181.2740768417615</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>212.7321843834112</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1915285955489</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>204.7338978835307</v>
       </c>
     </row>
     <row r="16">
@@ -23664,22 +23664,22 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>136.0257235641285</v>
       </c>
       <c r="G16" t="n">
         <v>168.2351280313919</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6843734359952</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>150.8496959663649</v>
       </c>
       <c r="J16" t="n">
-        <v>86.51281308769293</v>
+        <v>87.31837205263561</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>12.93027715900567</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.160723434805078</v>
+        <v>2.160723434805064</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.22540817413697</v>
+        <v>88.22540817413696</v>
       </c>
       <c r="R16" t="n">
         <v>182.4927834607991</v>
@@ -23734,22 +23734,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>37.30184598754823</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>58.57526066800568</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>127.5937134925039</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>104.8964416917628</v>
+        <v>417.8000930853933</v>
       </c>
       <c r="H17" t="n">
-        <v>23.4865116719802</v>
+        <v>336.3901630656106</v>
       </c>
       <c r="I17" t="n">
         <v>200.9891947475946</v>
@@ -23788,16 +23788,16 @@
         <v>217.9216867371346</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0674951024693</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>7.976132215521432</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>312.3584227807264</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>46.87906290107554</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.570918838061774</v>
+        <v>52.82564827576748</v>
       </c>
       <c r="I18" t="n">
-        <v>88.2403386428762</v>
+        <v>88.24033864287618</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.2349341647554</v>
       </c>
       <c r="S18" t="n">
-        <v>181.2740768417615</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>212.7321843834112</v>
@@ -23870,13 +23870,13 @@
         <v>237.1915285955489</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.03138857465487</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23913,10 +23913,10 @@
         <v>150.8496959663649</v>
       </c>
       <c r="J19" t="n">
-        <v>87.31837205263562</v>
+        <v>87.31837205263561</v>
       </c>
       <c r="K19" t="n">
-        <v>12.9302771590057</v>
+        <v>12.93027715900567</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,16 +23931,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.160723434805092</v>
+        <v>2.160723434805064</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.22540817413699</v>
+        <v>88.22540817413696</v>
       </c>
       <c r="R19" t="n">
         <v>182.4927834607991</v>
       </c>
       <c r="S19" t="n">
-        <v>227.3230889191529</v>
+        <v>62.73755682883956</v>
       </c>
       <c r="T19" t="n">
         <v>221.771976259346</v>
@@ -23971,25 +23971,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>37.30184598754823</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>58.57526066800568</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>328.5829082400986</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>104.8964416917628</v>
+        <v>188.2381853457213</v>
       </c>
       <c r="H20" t="n">
-        <v>23.4865116719802</v>
+        <v>336.3901630656106</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>200.9891947475946</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>129.6732602927343</v>
       </c>
       <c r="S20" t="n">
-        <v>203.8617493554951</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.9216867371346</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0674951024693</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>38.36247291116877</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>67.41380551785939</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>148.1891827742633</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>120.3713202691058</v>
       </c>
       <c r="I21" t="n">
-        <v>88.2403386428762</v>
+        <v>88.24033864287618</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>100.2349341647554</v>
       </c>
       <c r="S21" t="n">
-        <v>181.2740768417615</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>212.7321843834112</v>
@@ -24110,7 +24110,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>150.8496959663649</v>
       </c>
       <c r="J22" t="n">
-        <v>87.31837205263562</v>
+        <v>87.31837205263561</v>
       </c>
       <c r="K22" t="n">
-        <v>12.9302771590057</v>
+        <v>12.93027715900567</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,19 +24168,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.160723434805092</v>
+        <v>2.160723434805064</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.22540817413699</v>
+        <v>88.22540817413696</v>
       </c>
       <c r="R22" t="n">
-        <v>182.4927834607991</v>
+        <v>17.90725137048574</v>
       </c>
       <c r="S22" t="n">
         <v>227.3230889191529</v>
       </c>
       <c r="T22" t="n">
-        <v>57.1864441690326</v>
+        <v>221.771976259346</v>
       </c>
       <c r="U22" t="n">
         <v>288.6311580469787</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.08836802115</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>329.1012087514287</v>
       </c>
       <c r="I23" t="n">
-        <v>173.5504142083536</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>187.6433144540503</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.8061102684094</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0105570973299</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>149.8081003350828</v>
       </c>
       <c r="X23" t="n">
-        <v>81.29855539197035</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>74.1467150488994</v>
       </c>
       <c r="C24" t="n">
-        <v>19.55885551128989</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.8083762929562</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>116.6935313575338</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>174.2007634718673</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24387,7 +24387,7 @@
         <v>141.2488165403225</v>
       </c>
       <c r="J25" t="n">
-        <v>64.7470179727288</v>
+        <v>64.74701797272881</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.49212510482725</v>
+        <v>61.49212510482727</v>
       </c>
       <c r="R25" t="n">
         <v>168.1379014652714</v>
       </c>
       <c r="S25" t="n">
-        <v>221.7593386592607</v>
+        <v>100.3988351111108</v>
       </c>
       <c r="T25" t="n">
         <v>220.4078851679796</v>
@@ -24426,13 +24426,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5441638136234</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>11.28811483752401</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -24463,7 +24463,7 @@
         <v>329.1012087514287</v>
       </c>
       <c r="I26" t="n">
-        <v>173.5504142083537</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>84.9653607259593</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>187.6433144540503</v>
       </c>
       <c r="T26" t="n">
-        <v>6.605685040713887</v>
+        <v>214.8061102684094</v>
       </c>
       <c r="U26" t="n">
         <v>250.0105570973299</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>140.6549644278368</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>13.45456380283575</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>75.12923829962483</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>76.59152824640302</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>61.49212510482727</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>168.1379014652714</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>221.7593386592607</v>
       </c>
       <c r="T28" t="n">
         <v>220.4078851679796</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6137441181527</v>
+        <v>167.2532405700028</v>
       </c>
       <c r="V28" t="n">
-        <v>223.3350446714969</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
@@ -24691,16 +24691,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>51.61730238023534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.1012087514287</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>173.5504142083537</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0105570973299</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>303.4836724359697</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.73415810925665</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>86.76889000209884</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>75.12923829962483</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24846,13 +24846,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>36.84768546276896</v>
+        <v>167.9158726695827</v>
       </c>
       <c r="H31" t="n">
         <v>158.8459030373648</v>
@@ -24888,7 +24888,7 @@
         <v>168.1379014652714</v>
       </c>
       <c r="S31" t="n">
-        <v>221.7593386592607</v>
+        <v>100.3988351111108</v>
       </c>
       <c r="T31" t="n">
         <v>220.4078851679796</v>
@@ -24900,7 +24900,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -24925,19 +24925,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>20.64678971941117</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.1012087514287</v>
       </c>
       <c r="I32" t="n">
-        <v>54.22294025619371</v>
+        <v>173.5504142083537</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>250.0105570973299</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>146.8258530422303</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -25010,7 +25010,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.8083762929562</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>116.6935313575338</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>158.1897918258532</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>14.11446304389693</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>167.9158726695827</v>
@@ -25128,10 +25128,10 @@
         <v>221.7593386592607</v>
       </c>
       <c r="T34" t="n">
-        <v>220.4078851679796</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6137441181527</v>
+        <v>97.35041864864706</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25165,16 +25165,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>321.118615433125</v>
       </c>
       <c r="G35" t="n">
-        <v>417.08836802115</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>329.1012087514287</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>173.5504142083537</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0105570973299</v>
       </c>
       <c r="V35" t="n">
-        <v>236.4764976124588</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.8083762929562</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>116.6935313575338</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>71.77352341683189</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1664755375682</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>150.4001261492491</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>14.1144630438971</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.9158726695827</v>
@@ -25368,13 +25368,13 @@
         <v>220.4078851679796</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6137441181527</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>167.2532405700027</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.1012087514287</v>
       </c>
       <c r="I38" t="n">
-        <v>97.59630991543696</v>
+        <v>173.5504142083537</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.9653607259593</v>
       </c>
       <c r="S38" t="n">
         <v>187.6433144540503</v>
       </c>
       <c r="T38" t="n">
-        <v>214.8061102684094</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0105570973299</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>313.5838871711011</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>76.59152824640302</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>74.27339925388955</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>103.8055298038117</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25560,13 +25560,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.9158726695827</v>
       </c>
       <c r="H40" t="n">
-        <v>158.8459030373648</v>
+        <v>107.8609132775869</v>
       </c>
       <c r="I40" t="n">
         <v>141.2488165403225</v>
@@ -25599,13 +25599,13 @@
         <v>168.1379014652714</v>
       </c>
       <c r="S40" t="n">
-        <v>221.7593386592607</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.35041864864705</v>
+        <v>220.4078851679796</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6137441181527</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25630,13 +25630,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7499122929167</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
@@ -25645,10 +25645,10 @@
         <v>417.08836802115</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.1012087514287</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>173.5504142083537</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.96536072595933</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>187.6433144540503</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>181.398230716884</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>145.0980194207224</v>
       </c>
       <c r="C42" t="n">
-        <v>129.3159144487334</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>116.6935313575338</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>76.59152824640303</v>
       </c>
       <c r="S42" t="n">
-        <v>174.2007634718674</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.1972670311248</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1664755375682</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25788,7 +25788,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -25836,13 +25836,13 @@
         <v>168.1379014652714</v>
       </c>
       <c r="S43" t="n">
-        <v>221.7593386592608</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.4078851679796</v>
+        <v>196.9531941617277</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6137441181527</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25851,7 +25851,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>98.8619888889101</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25867,7 +25867,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>259.3606964689807</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>329.1012087514287</v>
+        <v>7.994347600400431</v>
       </c>
       <c r="I44" t="n">
         <v>173.5504142083537</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0105570973299</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.8083762929562</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.3257956021646</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>76.59152824640303</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>174.2007634718674</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.1972670311248</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>149.1694755468308</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>35.38899376515889</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>167.9158726695827</v>
       </c>
       <c r="H46" t="n">
-        <v>158.8459030373648</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>141.2488165403225</v>
@@ -26076,7 +26076,7 @@
         <v>221.7593386592608</v>
       </c>
       <c r="T46" t="n">
-        <v>220.4078851679796</v>
+        <v>112.76522781857</v>
       </c>
       <c r="U46" t="n">
         <v>288.6137441181527</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>561005.06717683</v>
+        <v>561005.0671768299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>561005.0671768299</v>
+        <v>561005.06717683</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561005.0671768299</v>
+        <v>561005.06717683</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>561005.0671768299</v>
+        <v>561005.06717683</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>706333.5699005291</v>
+        <v>706333.5699005292</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>706333.569900529</v>
+        <v>706333.5699005293</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>706333.5699005292</v>
+        <v>706333.5699005293</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>706333.5699005289</v>
+        <v>706333.5699005292</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>706333.5699005289</v>
+        <v>706333.569900529</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>706333.569900529</v>
+        <v>706333.5699005289</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>105770.0622724002</v>
       </c>
       <c r="E2" t="n">
+        <v>217827.2808707998</v>
+      </c>
+      <c r="F2" t="n">
         <v>217827.2808707997</v>
-      </c>
-      <c r="F2" t="n">
-        <v>217827.2808707998</v>
       </c>
       <c r="G2" t="n">
         <v>217827.2808707998</v>
@@ -26337,22 +26337,22 @@
         <v>275670.2761496907</v>
       </c>
       <c r="J2" t="n">
+        <v>275670.2761496906</v>
+      </c>
+      <c r="K2" t="n">
         <v>275670.2761496907</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>275670.2761496907</v>
+      </c>
+      <c r="M2" t="n">
         <v>275670.2761496906</v>
-      </c>
-      <c r="L2" t="n">
-        <v>275670.2761496906</v>
-      </c>
-      <c r="M2" t="n">
-        <v>275670.2761496907</v>
       </c>
       <c r="N2" t="n">
         <v>275670.2761496906</v>
       </c>
       <c r="O2" t="n">
-        <v>275670.2761496907</v>
+        <v>275670.2761496906</v>
       </c>
       <c r="P2" t="n">
         <v>275670.2761496907</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>187958.3100789496</v>
+        <v>187958.3100789495</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77976.84154189833</v>
+        <v>77976.84154189828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>17548.7579681378</v>
       </c>
       <c r="O4" t="n">
-        <v>17548.75796813779</v>
+        <v>17548.7579681378</v>
       </c>
       <c r="P4" t="n">
         <v>17548.7579681378</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26859.32583197173</v>
+        <v>26859.32583197172</v>
       </c>
       <c r="F5" t="n">
         <v>26859.32583197172</v>
       </c>
       <c r="G5" t="n">
-        <v>26859.32583197172</v>
+        <v>26859.32583197173</v>
       </c>
       <c r="H5" t="n">
-        <v>26859.32583197172</v>
+        <v>26859.32583197173</v>
       </c>
       <c r="I5" t="n">
         <v>43223.21300717071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56276.95293154014</v>
+        <v>39472.49232369674</v>
       </c>
       <c r="C6" t="n">
-        <v>56276.95293154014</v>
+        <v>39472.49232369674</v>
       </c>
       <c r="D6" t="n">
-        <v>56276.95293154014</v>
+        <v>39472.49232369674</v>
       </c>
       <c r="E6" t="n">
-        <v>-207865.8534290233</v>
+        <v>-219067.4531069466</v>
       </c>
       <c r="F6" t="n">
-        <v>174298.3127745496</v>
+        <v>163096.7130966262</v>
       </c>
       <c r="G6" t="n">
-        <v>174298.3127745497</v>
+        <v>163096.7130966262</v>
       </c>
       <c r="H6" t="n">
-        <v>174298.3127745496</v>
+        <v>163096.7130966262</v>
       </c>
       <c r="I6" t="n">
-        <v>26939.99509543265</v>
+        <v>18630.54518145385</v>
       </c>
       <c r="J6" t="n">
-        <v>214898.3051743822</v>
+        <v>206588.8552604032</v>
       </c>
       <c r="K6" t="n">
-        <v>214898.3051743821</v>
+        <v>206588.8552604033</v>
       </c>
       <c r="L6" t="n">
-        <v>214898.3051743821</v>
+        <v>206588.8552604033</v>
       </c>
       <c r="M6" t="n">
-        <v>136921.4636324839</v>
+        <v>128612.013718505</v>
       </c>
       <c r="N6" t="n">
-        <v>214898.3051743821</v>
+        <v>206588.8552604032</v>
       </c>
       <c r="O6" t="n">
-        <v>214898.3051743822</v>
+        <v>206588.8552604032</v>
       </c>
       <c r="P6" t="n">
-        <v>214898.3051743822</v>
+        <v>206588.8552604033</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>359.3937535430729</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="F3" t="n">
         <v>359.3937535430729</v>
       </c>
       <c r="G3" t="n">
-        <v>359.3937535430728</v>
+        <v>359.3937535430729</v>
       </c>
       <c r="H3" t="n">
-        <v>359.3937535430728</v>
+        <v>359.3937535430729</v>
       </c>
       <c r="I3" t="n">
-        <v>536.4353632736008</v>
+        <v>536.4353632736007</v>
       </c>
       <c r="J3" t="n">
         <v>536.4353632736007</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>312.9036513936306</v>
+        <v>312.9036513936305</v>
       </c>
       <c r="F4" t="n">
         <v>312.9036513936305</v>
       </c>
       <c r="G4" t="n">
-        <v>312.9036513936305</v>
+        <v>312.9036513936306</v>
       </c>
       <c r="H4" t="n">
-        <v>312.9036513936305</v>
+        <v>312.9036513936306</v>
       </c>
       <c r="I4" t="n">
-        <v>518.5677974968128</v>
+        <v>518.5677974968127</v>
       </c>
       <c r="J4" t="n">
         <v>518.5677974968127</v>
@@ -26819,13 +26819,13 @@
         <v>518.5677974968127</v>
       </c>
       <c r="L4" t="n">
-        <v>518.5677974968127</v>
+        <v>518.5677974968128</v>
       </c>
       <c r="M4" t="n">
         <v>518.5677974968127</v>
       </c>
       <c r="N4" t="n">
-        <v>518.5677974968127</v>
+        <v>518.5677974968128</v>
       </c>
       <c r="O4" t="n">
         <v>518.5677974968125</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>359.3937535430729</v>
+        <v>359.3937535430728</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>177.041609730528</v>
+        <v>177.0416097305279</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>312.9036513936306</v>
+        <v>312.9036513936305</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>205.6641461031823</v>
+        <v>205.6641461031821</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>312.9036513936306</v>
+        <v>312.9036513936304</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>312.9036513936306</v>
+        <v>312.9036513936305</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>14.79654785315776</v>
       </c>
       <c r="I11" t="n">
-        <v>55.70061380289174</v>
+        <v>55.70061380289173</v>
       </c>
       <c r="J11" t="n">
         <v>122.6255099086488</v>
       </c>
       <c r="K11" t="n">
-        <v>183.783851968863</v>
+        <v>183.7838519688629</v>
       </c>
       <c r="L11" t="n">
-        <v>228.0001196472301</v>
+        <v>228.00011964723</v>
       </c>
       <c r="M11" t="n">
-        <v>253.6940640274175</v>
+        <v>253.6940640274174</v>
       </c>
       <c r="N11" t="n">
         <v>257.7990992123592</v>
@@ -31785,16 +31785,16 @@
         <v>156.0220390067317</v>
       </c>
       <c r="R11" t="n">
-        <v>90.75685576281428</v>
+        <v>90.75685576281427</v>
       </c>
       <c r="S11" t="n">
         <v>32.92335742256392</v>
       </c>
       <c r="T11" t="n">
-        <v>6.324607662853472</v>
+        <v>6.324607662853471</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1155839207374706</v>
+        <v>0.1155839207374705</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7730356208284964</v>
+        <v>0.7730356208284963</v>
       </c>
       <c r="H12" t="n">
-        <v>7.465896653791006</v>
+        <v>7.465896653791004</v>
       </c>
       <c r="I12" t="n">
         <v>26.61548080484078</v>
       </c>
       <c r="J12" t="n">
-        <v>73.03491363274844</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K12" t="n">
         <v>124.8283002282577</v>
@@ -31861,19 +31861,19 @@
         <v>147.6158985071538</v>
       </c>
       <c r="Q12" t="n">
-        <v>98.67731889733579</v>
+        <v>98.67731889733578</v>
       </c>
       <c r="R12" t="n">
-        <v>47.99601863354474</v>
+        <v>47.99601863354473</v>
       </c>
       <c r="S12" t="n">
         <v>14.35879760617842</v>
       </c>
       <c r="T12" t="n">
-        <v>3.115876033076263</v>
+        <v>3.115876033076262</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05085760663345373</v>
+        <v>0.05085760663345372</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6480870965530822</v>
+        <v>0.6480870965530821</v>
       </c>
       <c r="H13" t="n">
-        <v>5.76208345844468</v>
+        <v>5.762083458444679</v>
       </c>
       <c r="I13" t="n">
         <v>19.48974650361451</v>
@@ -31922,34 +31922,34 @@
         <v>45.8197577263029</v>
       </c>
       <c r="K13" t="n">
-        <v>75.29593721771262</v>
+        <v>75.29593721771261</v>
       </c>
       <c r="L13" t="n">
-        <v>96.35287615481006</v>
+        <v>96.35287615481005</v>
       </c>
       <c r="M13" t="n">
         <v>101.5905982351345</v>
       </c>
       <c r="N13" t="n">
-        <v>99.17500087525491</v>
+        <v>99.1750008752549</v>
       </c>
       <c r="O13" t="n">
-        <v>91.60416524733932</v>
+        <v>91.60416524733931</v>
       </c>
       <c r="P13" t="n">
-        <v>78.38318847765638</v>
+        <v>78.38318847765636</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.26845678500401</v>
+        <v>54.26845678500399</v>
       </c>
       <c r="R13" t="n">
-        <v>29.14035254137767</v>
+        <v>29.14035254137766</v>
       </c>
       <c r="S13" t="n">
         <v>11.29439058265689</v>
       </c>
       <c r="T13" t="n">
-        <v>2.769099412544987</v>
+        <v>2.769099412544986</v>
       </c>
       <c r="U13" t="n">
         <v>0.03535020526653179</v>
@@ -32016,19 +32016,19 @@
         <v>243.4323790644439</v>
       </c>
       <c r="P14" t="n">
-        <v>207.763903524365</v>
+        <v>207.7639035243651</v>
       </c>
       <c r="Q14" t="n">
         <v>156.0220390067317</v>
       </c>
       <c r="R14" t="n">
-        <v>90.75685576281428</v>
+        <v>90.7568557628143</v>
       </c>
       <c r="S14" t="n">
         <v>32.92335742256392</v>
       </c>
       <c r="T14" t="n">
-        <v>6.324607662853472</v>
+        <v>6.324607662853473</v>
       </c>
       <c r="U14" t="n">
         <v>0.1155839207374706</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7730356208284964</v>
+        <v>0.7730356208284965</v>
       </c>
       <c r="H15" t="n">
-        <v>7.465896653791006</v>
+        <v>7.465896653791007</v>
       </c>
       <c r="I15" t="n">
         <v>26.61548080484078</v>
@@ -32083,7 +32083,7 @@
         <v>124.8283002282577</v>
       </c>
       <c r="L15" t="n">
-        <v>167.8470544259417</v>
+        <v>167.8470544259418</v>
       </c>
       <c r="M15" t="n">
         <v>195.8695956809747</v>
@@ -32095,10 +32095,10 @@
         <v>183.9248391363309</v>
       </c>
       <c r="P15" t="n">
-        <v>147.6158985071538</v>
+        <v>147.6158985071539</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.67731889733579</v>
+        <v>98.67731889733581</v>
       </c>
       <c r="R15" t="n">
         <v>47.99601863354474</v>
@@ -32110,7 +32110,7 @@
         <v>3.115876033076263</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05085760663345373</v>
+        <v>0.05085760663345374</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6480870965530822</v>
+        <v>0.6480870965530823</v>
       </c>
       <c r="H16" t="n">
-        <v>5.76208345844468</v>
+        <v>5.762083458444681</v>
       </c>
       <c r="I16" t="n">
-        <v>19.48974650361451</v>
+        <v>19.48974650361452</v>
       </c>
       <c r="J16" t="n">
-        <v>45.8197577263029</v>
+        <v>45.81975772630291</v>
       </c>
       <c r="K16" t="n">
-        <v>75.29593721771262</v>
+        <v>75.29593721771263</v>
       </c>
       <c r="L16" t="n">
-        <v>96.35287615481006</v>
+        <v>96.35287615481009</v>
       </c>
       <c r="M16" t="n">
         <v>101.5905982351345</v>
       </c>
       <c r="N16" t="n">
-        <v>99.17500087525491</v>
+        <v>99.17500087525492</v>
       </c>
       <c r="O16" t="n">
-        <v>91.60416524733932</v>
+        <v>91.60416524733934</v>
       </c>
       <c r="P16" t="n">
-        <v>78.38318847765638</v>
+        <v>78.38318847765639</v>
       </c>
       <c r="Q16" t="n">
         <v>54.26845678500401</v>
@@ -32189,7 +32189,7 @@
         <v>2.769099412544987</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03535020526653179</v>
+        <v>0.0353502052665318</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>14.79654785315776</v>
       </c>
       <c r="I17" t="n">
-        <v>55.70061380289173</v>
+        <v>55.70061380289174</v>
       </c>
       <c r="J17" t="n">
         <v>122.6255099086488</v>
       </c>
       <c r="K17" t="n">
-        <v>183.7838519688629</v>
+        <v>183.783851968863</v>
       </c>
       <c r="L17" t="n">
-        <v>228.00011964723</v>
+        <v>228.0001196472301</v>
       </c>
       <c r="M17" t="n">
-        <v>253.6940640274174</v>
+        <v>253.6940640274175</v>
       </c>
       <c r="N17" t="n">
         <v>257.7990992123592</v>
@@ -32253,22 +32253,22 @@
         <v>243.4323790644439</v>
       </c>
       <c r="P17" t="n">
-        <v>207.763903524365</v>
+        <v>207.7639035243651</v>
       </c>
       <c r="Q17" t="n">
         <v>156.0220390067317</v>
       </c>
       <c r="R17" t="n">
-        <v>90.75685576281427</v>
+        <v>90.7568557628143</v>
       </c>
       <c r="S17" t="n">
         <v>32.92335742256392</v>
       </c>
       <c r="T17" t="n">
-        <v>6.324607662853471</v>
+        <v>6.324607662853473</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1155839207374705</v>
+        <v>0.1155839207374706</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7730356208284963</v>
+        <v>0.7730356208284965</v>
       </c>
       <c r="H18" t="n">
-        <v>7.465896653791004</v>
+        <v>7.465896653791007</v>
       </c>
       <c r="I18" t="n">
         <v>26.61548080484078</v>
       </c>
       <c r="J18" t="n">
-        <v>73.03491363274843</v>
+        <v>73.03491363274844</v>
       </c>
       <c r="K18" t="n">
         <v>124.8283002282577</v>
       </c>
       <c r="L18" t="n">
-        <v>167.8470544259417</v>
+        <v>167.8470544259418</v>
       </c>
       <c r="M18" t="n">
         <v>195.8695956809747</v>
@@ -32332,22 +32332,22 @@
         <v>183.9248391363309</v>
       </c>
       <c r="P18" t="n">
-        <v>147.6158985071538</v>
+        <v>147.6158985071539</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.67731889733578</v>
+        <v>98.67731889733581</v>
       </c>
       <c r="R18" t="n">
-        <v>47.99601863354473</v>
+        <v>47.99601863354474</v>
       </c>
       <c r="S18" t="n">
         <v>14.35879760617842</v>
       </c>
       <c r="T18" t="n">
-        <v>3.115876033076262</v>
+        <v>3.115876033076263</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05085760663345372</v>
+        <v>0.05085760663345374</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6480870965530821</v>
+        <v>0.6480870965530823</v>
       </c>
       <c r="H19" t="n">
-        <v>5.762083458444679</v>
+        <v>5.762083458444681</v>
       </c>
       <c r="I19" t="n">
-        <v>19.48974650361451</v>
+        <v>19.48974650361452</v>
       </c>
       <c r="J19" t="n">
-        <v>45.8197577263029</v>
+        <v>45.81975772630291</v>
       </c>
       <c r="K19" t="n">
-        <v>75.29593721771261</v>
+        <v>75.29593721771263</v>
       </c>
       <c r="L19" t="n">
-        <v>96.35287615481005</v>
+        <v>96.35287615481009</v>
       </c>
       <c r="M19" t="n">
         <v>101.5905982351345</v>
       </c>
       <c r="N19" t="n">
-        <v>99.1750008752549</v>
+        <v>99.17500087525492</v>
       </c>
       <c r="O19" t="n">
-        <v>91.60416524733931</v>
+        <v>91.60416524733934</v>
       </c>
       <c r="P19" t="n">
-        <v>78.38318847765636</v>
+        <v>78.38318847765639</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.26845678500399</v>
+        <v>54.26845678500401</v>
       </c>
       <c r="R19" t="n">
-        <v>29.14035254137766</v>
+        <v>29.14035254137767</v>
       </c>
       <c r="S19" t="n">
         <v>11.29439058265689</v>
       </c>
       <c r="T19" t="n">
-        <v>2.769099412544986</v>
+        <v>2.769099412544987</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03535020526653179</v>
+        <v>0.0353502052665318</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>14.79654785315776</v>
       </c>
       <c r="I20" t="n">
-        <v>55.70061380289173</v>
+        <v>55.70061380289174</v>
       </c>
       <c r="J20" t="n">
         <v>122.6255099086488</v>
       </c>
       <c r="K20" t="n">
-        <v>183.7838519688629</v>
+        <v>183.783851968863</v>
       </c>
       <c r="L20" t="n">
-        <v>228.00011964723</v>
+        <v>228.0001196472301</v>
       </c>
       <c r="M20" t="n">
-        <v>253.6940640274174</v>
+        <v>253.6940640274175</v>
       </c>
       <c r="N20" t="n">
         <v>257.7990992123592</v>
@@ -32490,22 +32490,22 @@
         <v>243.4323790644439</v>
       </c>
       <c r="P20" t="n">
-        <v>207.763903524365</v>
+        <v>207.7639035243651</v>
       </c>
       <c r="Q20" t="n">
         <v>156.0220390067317</v>
       </c>
       <c r="R20" t="n">
-        <v>90.75685576281427</v>
+        <v>90.7568557628143</v>
       </c>
       <c r="S20" t="n">
         <v>32.92335742256392</v>
       </c>
       <c r="T20" t="n">
-        <v>6.324607662853471</v>
+        <v>6.324607662853473</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1155839207374705</v>
+        <v>0.1155839207374706</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7730356208284963</v>
+        <v>0.7730356208284965</v>
       </c>
       <c r="H21" t="n">
-        <v>7.465896653791004</v>
+        <v>7.465896653791007</v>
       </c>
       <c r="I21" t="n">
         <v>26.61548080484078</v>
       </c>
       <c r="J21" t="n">
-        <v>73.03491363274843</v>
+        <v>73.03491363274844</v>
       </c>
       <c r="K21" t="n">
         <v>124.8283002282577</v>
       </c>
       <c r="L21" t="n">
-        <v>167.8470544259417</v>
+        <v>167.8470544259418</v>
       </c>
       <c r="M21" t="n">
         <v>195.8695956809747</v>
@@ -32569,22 +32569,22 @@
         <v>183.9248391363309</v>
       </c>
       <c r="P21" t="n">
-        <v>147.6158985071538</v>
+        <v>147.6158985071539</v>
       </c>
       <c r="Q21" t="n">
-        <v>98.67731889733578</v>
+        <v>98.67731889733581</v>
       </c>
       <c r="R21" t="n">
-        <v>47.99601863354473</v>
+        <v>47.99601863354474</v>
       </c>
       <c r="S21" t="n">
         <v>14.35879760617842</v>
       </c>
       <c r="T21" t="n">
-        <v>3.115876033076262</v>
+        <v>3.115876033076263</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05085760663345372</v>
+        <v>0.05085760663345374</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6480870965530821</v>
+        <v>0.6480870965530823</v>
       </c>
       <c r="H22" t="n">
-        <v>5.762083458444679</v>
+        <v>5.762083458444681</v>
       </c>
       <c r="I22" t="n">
-        <v>19.48974650361451</v>
+        <v>19.48974650361452</v>
       </c>
       <c r="J22" t="n">
-        <v>45.8197577263029</v>
+        <v>45.81975772630291</v>
       </c>
       <c r="K22" t="n">
-        <v>75.29593721771261</v>
+        <v>75.29593721771263</v>
       </c>
       <c r="L22" t="n">
-        <v>96.35287615481005</v>
+        <v>96.35287615481009</v>
       </c>
       <c r="M22" t="n">
         <v>101.5905982351345</v>
       </c>
       <c r="N22" t="n">
-        <v>99.1750008752549</v>
+        <v>99.17500087525492</v>
       </c>
       <c r="O22" t="n">
-        <v>91.60416524733931</v>
+        <v>91.60416524733934</v>
       </c>
       <c r="P22" t="n">
-        <v>78.38318847765636</v>
+        <v>78.38318847765639</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.26845678500399</v>
+        <v>54.26845678500401</v>
       </c>
       <c r="R22" t="n">
-        <v>29.14035254137766</v>
+        <v>29.14035254137767</v>
       </c>
       <c r="S22" t="n">
         <v>11.29439058265689</v>
       </c>
       <c r="T22" t="n">
-        <v>2.769099412544986</v>
+        <v>2.769099412544987</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03535020526653179</v>
+        <v>0.0353502052665318</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,22 +32703,22 @@
         <v>2.15652407346171</v>
       </c>
       <c r="H23" t="n">
-        <v>22.08550216733975</v>
+        <v>22.08550216733974</v>
       </c>
       <c r="I23" t="n">
-        <v>83.13939434213266</v>
+        <v>83.13939434213265</v>
       </c>
       <c r="J23" t="n">
         <v>183.032285079971</v>
       </c>
       <c r="K23" t="n">
-        <v>274.3179491096053</v>
+        <v>274.3179491096052</v>
       </c>
       <c r="L23" t="n">
-        <v>340.3156727228092</v>
+        <v>340.315672722809</v>
       </c>
       <c r="M23" t="n">
-        <v>378.6667577142338</v>
+        <v>378.6667577142337</v>
       </c>
       <c r="N23" t="n">
         <v>384.7939817379569</v>
@@ -32727,7 +32727,7 @@
         <v>363.350045482472</v>
       </c>
       <c r="P23" t="n">
-        <v>310.110857418886</v>
+        <v>310.1108574188859</v>
       </c>
       <c r="Q23" t="n">
         <v>232.8803390380384</v>
@@ -32736,10 +32736,10 @@
         <v>135.4647553295893</v>
       </c>
       <c r="S23" t="n">
-        <v>49.14179232400878</v>
+        <v>49.14179232400876</v>
       </c>
       <c r="T23" t="n">
-        <v>9.440184131578642</v>
+        <v>9.44018413157864</v>
       </c>
       <c r="U23" t="n">
         <v>0.1725219258769368</v>
@@ -32791,37 +32791,37 @@
         <v>109.0127750969494</v>
       </c>
       <c r="K24" t="n">
-        <v>186.3201959400393</v>
+        <v>186.3201959400392</v>
       </c>
       <c r="L24" t="n">
-        <v>250.5304967816945</v>
+        <v>250.5304967816944</v>
       </c>
       <c r="M24" t="n">
-        <v>292.3572729841124</v>
+        <v>292.3572729841123</v>
       </c>
       <c r="N24" t="n">
-        <v>300.0951000637855</v>
+        <v>300.0951000637854</v>
       </c>
       <c r="O24" t="n">
         <v>274.5283882217266</v>
       </c>
       <c r="P24" t="n">
-        <v>220.3332343981702</v>
+        <v>220.3332343981701</v>
       </c>
       <c r="Q24" t="n">
         <v>147.2869321954234</v>
       </c>
       <c r="R24" t="n">
-        <v>71.63942455189714</v>
+        <v>71.63942455189712</v>
       </c>
       <c r="S24" t="n">
-        <v>21.43211097607263</v>
+        <v>21.43211097607262</v>
       </c>
       <c r="T24" t="n">
-        <v>4.650793385362632</v>
+        <v>4.650793385362631</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07591066461418883</v>
+        <v>0.07591066461418881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9673424583622309</v>
+        <v>0.9673424583622307</v>
       </c>
       <c r="H25" t="n">
-        <v>8.600553857075115</v>
+        <v>8.600553857075113</v>
       </c>
       <c r="I25" t="n">
-        <v>29.09062592965692</v>
+        <v>29.09062592965691</v>
       </c>
       <c r="J25" t="n">
-        <v>68.39111180620972</v>
+        <v>68.39111180620971</v>
       </c>
       <c r="K25" t="n">
         <v>112.3876056169937</v>
@@ -32879,7 +32879,7 @@
         <v>151.635327359454</v>
       </c>
       <c r="N25" t="n">
-        <v>148.0297781964677</v>
+        <v>148.0297781964676</v>
       </c>
       <c r="O25" t="n">
         <v>136.729459478327</v>
@@ -32888,19 +32888,19 @@
         <v>116.9956733277374</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.00173985431373</v>
+        <v>81.00173985431371</v>
       </c>
       <c r="R25" t="n">
-        <v>43.49523453690539</v>
+        <v>43.49523453690538</v>
       </c>
       <c r="S25" t="n">
-        <v>16.85814084254906</v>
+        <v>16.85814084254905</v>
       </c>
       <c r="T25" t="n">
-        <v>4.133190503911349</v>
+        <v>4.133190503911348</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05276413409248538</v>
+        <v>0.05276413409248537</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.32411301759532</v>
+        <v>11.32411301759531</v>
       </c>
       <c r="K11" t="n">
         <v>125.3204610401014</v>
@@ -35424,7 +35424,7 @@
         <v>261.315968643484</v>
       </c>
       <c r="O11" t="n">
-        <v>209.4710785882451</v>
+        <v>209.471078588245</v>
       </c>
       <c r="P11" t="n">
         <v>134.185211598057</v>
@@ -35494,22 +35494,22 @@
         <v>128.0352182636907</v>
       </c>
       <c r="L12" t="n">
-        <v>239.1152548511368</v>
+        <v>239.1152548511367</v>
       </c>
       <c r="M12" t="n">
-        <v>312.9036513936306</v>
+        <v>39.17707298158479</v>
       </c>
       <c r="N12" t="n">
-        <v>294.3998558729057</v>
+        <v>312.9036513936305</v>
       </c>
       <c r="O12" t="n">
-        <v>9.957420914108695</v>
+        <v>265.1802038054294</v>
       </c>
       <c r="P12" t="n">
         <v>190.5309955403502</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.02963696521974</v>
+        <v>64.02963696521972</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>37.07717769062661</v>
+        <v>37.0771776906266</v>
       </c>
       <c r="M13" t="n">
-        <v>47.77540208837712</v>
+        <v>47.77540208837711</v>
       </c>
       <c r="N13" t="n">
-        <v>54.73651714288165</v>
+        <v>54.73651714288164</v>
       </c>
       <c r="O13" t="n">
-        <v>28.33818814118298</v>
+        <v>28.33818814118297</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.32411301759532</v>
+        <v>11.32411301759534</v>
       </c>
       <c r="K14" t="n">
-        <v>125.3204610401014</v>
+        <v>125.3204610401015</v>
       </c>
       <c r="L14" t="n">
         <v>211.0095604125375</v>
       </c>
       <c r="M14" t="n">
-        <v>263.9564291935002</v>
+        <v>263.9564291935003</v>
       </c>
       <c r="N14" t="n">
         <v>261.315968643484</v>
@@ -35667,7 +35667,7 @@
         <v>134.185211598057</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.38921130752155</v>
+        <v>22.38921130752158</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.0352182636907</v>
       </c>
       <c r="L15" t="n">
         <v>239.1152548511368</v>
       </c>
       <c r="M15" t="n">
-        <v>231.241928210495</v>
+        <v>293.7377054871546</v>
       </c>
       <c r="N15" t="n">
         <v>312.9036513936305</v>
       </c>
       <c r="O15" t="n">
-        <v>265.1802038054294</v>
+        <v>265.1802038054295</v>
       </c>
       <c r="P15" t="n">
-        <v>190.5309955403502</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>37.07717769062661</v>
+        <v>37.07717769062664</v>
       </c>
       <c r="M16" t="n">
-        <v>47.77540208837712</v>
+        <v>47.77540208837713</v>
       </c>
       <c r="N16" t="n">
-        <v>54.73651714288165</v>
+        <v>54.73651714288167</v>
       </c>
       <c r="O16" t="n">
-        <v>28.33818814118298</v>
+        <v>28.338188141183</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.32411301759529</v>
+        <v>11.32411301759534</v>
       </c>
       <c r="K17" t="n">
-        <v>125.3204610401014</v>
+        <v>125.3204610401015</v>
       </c>
       <c r="L17" t="n">
         <v>211.0095604125375</v>
       </c>
       <c r="M17" t="n">
-        <v>263.9564291935002</v>
+        <v>263.9564291935003</v>
       </c>
       <c r="N17" t="n">
         <v>261.315968643484</v>
       </c>
       <c r="O17" t="n">
-        <v>209.471078588245</v>
+        <v>209.4710785882451</v>
       </c>
       <c r="P17" t="n">
-        <v>134.1852115980569</v>
+        <v>134.185211598057</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.38921130752152</v>
+        <v>22.38921130752158</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>128.0352182636907</v>
       </c>
       <c r="L18" t="n">
-        <v>239.1152548511367</v>
+        <v>239.1152548511368</v>
       </c>
       <c r="M18" t="n">
-        <v>231.2419282104951</v>
+        <v>39.17707298158479</v>
       </c>
       <c r="N18" t="n">
-        <v>312.9036513936305</v>
+        <v>312.9036513936306</v>
       </c>
       <c r="O18" t="n">
-        <v>265.1802038054294</v>
+        <v>265.1802038054295</v>
       </c>
       <c r="P18" t="n">
-        <v>190.5309955403502</v>
+        <v>190.5309955403503</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>64.02963696521975</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>37.0771776906266</v>
+        <v>37.07717769062664</v>
       </c>
       <c r="M19" t="n">
-        <v>47.77540208837711</v>
+        <v>47.77540208837713</v>
       </c>
       <c r="N19" t="n">
-        <v>54.73651714288164</v>
+        <v>54.73651714288167</v>
       </c>
       <c r="O19" t="n">
-        <v>28.33818814118297</v>
+        <v>28.338188141183</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.32411301759529</v>
+        <v>11.32411301759534</v>
       </c>
       <c r="K20" t="n">
-        <v>125.3204610401014</v>
+        <v>125.3204610401015</v>
       </c>
       <c r="L20" t="n">
         <v>211.0095604125375</v>
       </c>
       <c r="M20" t="n">
-        <v>263.9564291935002</v>
+        <v>263.9564291935003</v>
       </c>
       <c r="N20" t="n">
         <v>261.315968643484</v>
       </c>
       <c r="O20" t="n">
-        <v>209.471078588245</v>
+        <v>209.4710785882451</v>
       </c>
       <c r="P20" t="n">
-        <v>134.1852115980569</v>
+        <v>134.185211598057</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.38921130752152</v>
+        <v>22.38921130752158</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>128.0352182636907</v>
       </c>
       <c r="L21" t="n">
-        <v>239.1152548511367</v>
+        <v>239.1152548511368</v>
       </c>
       <c r="M21" t="n">
-        <v>312.9036513936305</v>
+        <v>311.2639320664039</v>
       </c>
       <c r="N21" t="n">
-        <v>312.9036513936305</v>
+        <v>40.81679230881147</v>
       </c>
       <c r="O21" t="n">
-        <v>265.1802038054294</v>
+        <v>265.1802038054295</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8692723572148</v>
+        <v>190.5309955403503</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>64.02963696521975</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>37.0771776906266</v>
+        <v>37.07717769062664</v>
       </c>
       <c r="M22" t="n">
-        <v>47.77540208837711</v>
+        <v>47.77540208837713</v>
       </c>
       <c r="N22" t="n">
-        <v>54.73651714288164</v>
+        <v>54.73651714288167</v>
       </c>
       <c r="O22" t="n">
-        <v>28.33818814118297</v>
+        <v>28.338188141183</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.73088818891752</v>
+        <v>71.73088818891749</v>
       </c>
       <c r="K23" t="n">
         <v>215.8545581808437</v>
       </c>
       <c r="L23" t="n">
-        <v>323.3251134881166</v>
+        <v>323.3251134881165</v>
       </c>
       <c r="M23" t="n">
-        <v>388.9291228803166</v>
+        <v>388.9291228803165</v>
       </c>
       <c r="N23" t="n">
         <v>388.3108511690817</v>
       </c>
       <c r="O23" t="n">
-        <v>329.3887450062732</v>
+        <v>329.3887450062731</v>
       </c>
       <c r="P23" t="n">
-        <v>236.5321654925779</v>
+        <v>236.5321654925778</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.2475113388283</v>
+        <v>99.24751133882825</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>128.6462211465756</v>
+        <v>189.5271139754722</v>
       </c>
       <c r="L24" t="n">
-        <v>321.7986972068895</v>
+        <v>321.7986972068894</v>
       </c>
       <c r="M24" t="n">
-        <v>420.73063290925</v>
+        <v>420.7306329092499</v>
       </c>
       <c r="N24" t="n">
-        <v>450.4720698967415</v>
+        <v>450.4720698967413</v>
       </c>
       <c r="O24" t="n">
-        <v>355.7837528908252</v>
+        <v>355.7837528908251</v>
       </c>
       <c r="P24" t="n">
         <v>263.2483314313665</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.6392502633073</v>
+        <v>51.75835743441072</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>24.16139124027541</v>
+        <v>24.16139124027539</v>
       </c>
       <c r="L25" t="n">
-        <v>84.54174302723408</v>
+        <v>84.54174302723405</v>
       </c>
       <c r="M25" t="n">
-        <v>97.82013121269667</v>
+        <v>97.82013121269664</v>
       </c>
       <c r="N25" t="n">
         <v>103.5912944640944</v>
       </c>
       <c r="O25" t="n">
-        <v>73.46348237217067</v>
+        <v>73.46348237217065</v>
       </c>
       <c r="P25" t="n">
-        <v>36.45176141527595</v>
+        <v>36.45176141527593</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>321.7986972068894</v>
       </c>
       <c r="M27" t="n">
-        <v>323.8718786161523</v>
+        <v>420.7306329092499</v>
       </c>
       <c r="N27" t="n">
         <v>450.4720698967413</v>
       </c>
       <c r="O27" t="n">
-        <v>355.7837528908251</v>
+        <v>258.9249985977275</v>
       </c>
       <c r="P27" t="n">
         <v>263.2483314313665</v>
@@ -36928,10 +36928,10 @@
         <v>355.7837528908251</v>
       </c>
       <c r="P30" t="n">
-        <v>263.2483314313665</v>
+        <v>166.3895771382689</v>
       </c>
       <c r="Q30" t="n">
-        <v>15.78049597020952</v>
+        <v>112.6392502633073</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>35.97786146420096</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>189.5271139754722</v>
@@ -37168,7 +37168,7 @@
         <v>263.2483314313665</v>
       </c>
       <c r="Q33" t="n">
-        <v>15.78049597020952</v>
+        <v>51.75835743441118</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35.97786146420096</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>189.5271139754722</v>
@@ -37405,7 +37405,7 @@
         <v>263.2483314313665</v>
       </c>
       <c r="Q36" t="n">
-        <v>15.78049597020952</v>
+        <v>51.75835743441072</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>35.97786146420096</v>
       </c>
       <c r="K39" t="n">
-        <v>189.5271139754722</v>
+        <v>92.6683596823751</v>
       </c>
       <c r="L39" t="n">
         <v>321.7986972068894</v>
@@ -37642,7 +37642,7 @@
         <v>263.2483314313665</v>
       </c>
       <c r="Q39" t="n">
-        <v>15.78049597020952</v>
+        <v>112.6392502633073</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.97786146420094</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>92.66835968237427</v>
+        <v>189.5271139754722</v>
       </c>
       <c r="L42" t="n">
         <v>321.7986972068894</v>
@@ -37879,7 +37879,7 @@
         <v>263.2483314313664</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.6392502633073</v>
+        <v>51.75835743441026</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>35.97786146420094</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>189.5271139754722</v>
@@ -38107,7 +38107,7 @@
         <v>420.7306329092499</v>
       </c>
       <c r="N45" t="n">
-        <v>353.6133156036436</v>
+        <v>450.4720698967413</v>
       </c>
       <c r="O45" t="n">
         <v>355.7837528908251</v>
@@ -38116,7 +38116,7 @@
         <v>263.2483314313664</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.6392502633073</v>
+        <v>51.75835743441026</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
